--- a/data/hotels_by_city/Houston/Houston_shard_590.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_590.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="627">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56646-d1724279-Reviews-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
   </si>
   <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-SpringHill-Suites-Houston-NASASeabrook.h3473260.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1783 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r566044888-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>56646</t>
+  </si>
+  <si>
+    <t>1724279</t>
+  </si>
+  <si>
+    <t>566044888</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Won't stay here again</t>
+  </si>
+  <si>
+    <t>I have stayed at this property at least half a dozen times.  In the beginning, I was very pleased because the hotel was very clean, the staff was very friendly and professional and the facilities were all in good working order.  Sadly, this was the last time I will stay at this property.  My room not up to previous standards of cleanliness and function, my pre-check in request for a feather-free room (due to allergies) was not completed (I had to call several times before this was accomplished), the daily cleaning was lacking, I had to go track down housekeeping on a daily basis for fresh towels, the hot items at breakfast were cold most days, the waffle station was gone, and the flavored creamers for coffee which I was so appreciated have been removed from the hotel (a small issue in the overall scheme of things but just one more item of my list of disappointments.)  Additionally, the rates at this property have continued to rise disproportionately to other properties in the area.  South Shore Harbor, for example, is a far cleaner, more upscale property and in many cases their rates are better than this property.  Other Marriott properties just a few miles down Nasa Road 1 are newer, lower priced and in better condition.
+The worst part, and the main reason I won't return, was the hotel manager.  Due to illness, I needed to extend my stay for...I have stayed at this property at least half a dozen times.  In the beginning, I was very pleased because the hotel was very clean, the staff was very friendly and professional and the facilities were all in good working order.  Sadly, this was the last time I will stay at this property.  My room not up to previous standards of cleanliness and function, my pre-check in request for a feather-free room (due to allergies) was not completed (I had to call several times before this was accomplished), the daily cleaning was lacking, I had to go track down housekeeping on a daily basis for fresh towels, the hot items at breakfast were cold most days, the waffle station was gone, and the flavored creamers for coffee which I was so appreciated have been removed from the hotel (a small issue in the overall scheme of things but just one more item of my list of disappointments.)  Additionally, the rates at this property have continued to rise disproportionately to other properties in the area.  South Shore Harbor, for example, is a far cleaner, more upscale property and in many cases their rates are better than this property.  Other Marriott properties just a few miles down Nasa Road 1 are newer, lower priced and in better condition.The worst part, and the main reason I won't return, was the hotel manager.  Due to illness, I needed to extend my stay for a few days after residing at the hotel for a full week.  Not only was the manager unwilling to honor my existing rate, the hotel wanted to double my rate.  Though this was ridiculous in my opinion, the bigger issue was the attitude of the staff.  The initial front desk agent I spoke with regarding the rate was curt and flippant, so I requested a manager.  I am still completely shocked by the manager's attitude.  She was flat-out rude.  Whether or not they were willing or able to honor my rate was immaterial at that point - I was much more concerned about her attitude.  I will drive further and pay a higher rate going forward soley because of the attitude of the staff here.  Completely unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this property at least half a dozen times.  In the beginning, I was very pleased because the hotel was very clean, the staff was very friendly and professional and the facilities were all in good working order.  Sadly, this was the last time I will stay at this property.  My room not up to previous standards of cleanliness and function, my pre-check in request for a feather-free room (due to allergies) was not completed (I had to call several times before this was accomplished), the daily cleaning was lacking, I had to go track down housekeeping on a daily basis for fresh towels, the hot items at breakfast were cold most days, the waffle station was gone, and the flavored creamers for coffee which I was so appreciated have been removed from the hotel (a small issue in the overall scheme of things but just one more item of my list of disappointments.)  Additionally, the rates at this property have continued to rise disproportionately to other properties in the area.  South Shore Harbor, for example, is a far cleaner, more upscale property and in many cases their rates are better than this property.  Other Marriott properties just a few miles down Nasa Road 1 are newer, lower priced and in better condition.
+The worst part, and the main reason I won't return, was the hotel manager.  Due to illness, I needed to extend my stay for...I have stayed at this property at least half a dozen times.  In the beginning, I was very pleased because the hotel was very clean, the staff was very friendly and professional and the facilities were all in good working order.  Sadly, this was the last time I will stay at this property.  My room not up to previous standards of cleanliness and function, my pre-check in request for a feather-free room (due to allergies) was not completed (I had to call several times before this was accomplished), the daily cleaning was lacking, I had to go track down housekeeping on a daily basis for fresh towels, the hot items at breakfast were cold most days, the waffle station was gone, and the flavored creamers for coffee which I was so appreciated have been removed from the hotel (a small issue in the overall scheme of things but just one more item of my list of disappointments.)  Additionally, the rates at this property have continued to rise disproportionately to other properties in the area.  South Shore Harbor, for example, is a far cleaner, more upscale property and in many cases their rates are better than this property.  Other Marriott properties just a few miles down Nasa Road 1 are newer, lower priced and in better condition.The worst part, and the main reason I won't return, was the hotel manager.  Due to illness, I needed to extend my stay for a few days after residing at the hotel for a full week.  Not only was the manager unwilling to honor my existing rate, the hotel wanted to double my rate.  Though this was ridiculous in my opinion, the bigger issue was the attitude of the staff.  The initial front desk agent I spoke with regarding the rate was curt and flippant, so I requested a manager.  I am still completely shocked by the manager's attitude.  She was flat-out rude.  Whether or not they were willing or able to honor my rate was immaterial at that point - I was much more concerned about her attitude.  I will drive further and pay a higher rate going forward soley because of the attitude of the staff here.  Completely unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r562403483-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>562403483</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Clean, Easy, Polite Staff</t>
+  </si>
+  <si>
+    <t>Second stay at this property.  The rooms are typical for a Springhill.  Plenty of room within the guest room.  Good spot if you have Bayport, Pasadena, or La Porte needs.  Staff was polite and accommodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r561812712-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>561812712</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Spring Hill Suites Seabrook</t>
+  </si>
+  <si>
+    <t>Nice, fairly priced hotel in the NASA area. Clean,  comfortable, quiet. Close to many restaurants &amp; bars. Good fitness area &amp; breakfast. Free parking &amp; internet. Bar on premises. 5 miles to boardwalk area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r549064050-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>549064050</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>The staff was helpful but were unfamiliar with Marriott e-gift cards. Free continental breakfast with ham and scrambled eggs which were a little hard. Management shouldn't require chef to clear food items when guests are still helping themselves at 9.30 am.Room had a toilet smell, and toilet vent was loud. Bottom of mirror is discolored. Hotel doesn't seem to provide lotions anymore. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>The staff was helpful but were unfamiliar with Marriott e-gift cards. Free continental breakfast with ham and scrambled eggs which were a little hard. Management shouldn't require chef to clear food items when guests are still helping themselves at 9.30 am.Room had a toilet smell, and toilet vent was loud. Bottom of mirror is discolored. Hotel doesn't seem to provide lotions anymore. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r549029468-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>549029468</t>
+  </si>
+  <si>
+    <t>Modern and and well run</t>
+  </si>
+  <si>
+    <t>The hotel was very new, with an updated look.  Rooms have plenty of space for work and relaxing.  Wifi was adequate for normal business email and teleconferencing.  Breakfast was about as expected for this class of hotel - OK, but nothing special.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r546666368-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>546666368</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>SpringHill Suites Nasa</t>
+  </si>
+  <si>
+    <t>As a Marriott member, this was my first visit to this property. Upon check in, I went up to my room to find large holes in the furniture, burn marks in the carpet and over-all unclean. This obviously was not my usual Marriott experience. They changed my room telling me they were pending an upgrade but it got delayed.  They should not be renting rooms with large holes in the furniture. Period. The second room was not much better.The traffic noise from the adjacent highway kept me up most of the night. Morning breakfast was not good. I cut my 7 days stay to 2 days and got out of there. Reporting to front desk staff was not helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>As a Marriott member, this was my first visit to this property. Upon check in, I went up to my room to find large holes in the furniture, burn marks in the carpet and over-all unclean. This obviously was not my usual Marriott experience. They changed my room telling me they were pending an upgrade but it got delayed.  They should not be renting rooms with large holes in the furniture. Period. The second room was not much better.The traffic noise from the adjacent highway kept me up most of the night. Morning breakfast was not good. I cut my 7 days stay to 2 days and got out of there. Reporting to front desk staff was not helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r536058409-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>536058409</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>ONly OK - aging and average Service</t>
+  </si>
+  <si>
+    <t>Only OK...not up to par with other spinghills I've stayed in.  For example,  the pull out couch had stains and the mattress was pure springs - little cushion.What was very frustrating is the fact that I checked in through the new App - I am a frequent Marriott customer.  Well, this was to have prep'd my room for my family of 5.  when we arrived they put us in the wrong room - twice - with no notice of  our pre-check in.  Then we got there to a room full of air freshener (hard to manage).The room was otherwise generally clean but aging in some areas.The price was right..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Only OK...not up to par with other spinghills I've stayed in.  For example,  the pull out couch had stains and the mattress was pure springs - little cushion.What was very frustrating is the fact that I checked in through the new App - I am a frequent Marriott customer.  Well, this was to have prep'd my room for my family of 5.  when we arrived they put us in the wrong room - twice - with no notice of  our pre-check in.  Then we got there to a room full of air freshener (hard to manage).The room was otherwise generally clean but aging in some areas.The price was right..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r535756113-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>535756113</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Needs some improvement</t>
+  </si>
+  <si>
+    <t>Stayed here for work a couple nights.  The room had a strong musty smell to it and had some wear to it.  Tried to open the window to get some fresh air and it wouldn't budge.  Not sure why the toilet would be in a different room as the shower but this was a bit off putting.  I did sleep well; however, I'll probably stay down the road next business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for work a couple nights.  The room had a strong musty smell to it and had some wear to it.  Tried to open the window to get some fresh air and it wouldn't budge.  Not sure why the toilet would be in a different room as the shower but this was a bit off putting.  I did sleep well; however, I'll probably stay down the road next business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r534043539-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>534043539</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Pleasant one night stay</t>
+  </si>
+  <si>
+    <t>It is nothing to look at from outside, but the interior is nice. The rooms are a bit quirky with an odd layout but very comfortable. The lobby is smallish but there is enough space to eat breakfast or have a drink. The Internet connection was very solid. Overall, a good selection if you staying in Seabrook.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r493708793-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>493708793</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>The hotel looks nice from the outside and as you walk in the lobby is beautifully designed. The room rates are reasonably priced and includes a complimentary breakfast and free parking. There's a pool and fitness center as well as a bar and conference rooms. We enjoyed our stay and the rooms were clean but upon inspection I did notice stains on some of the towels and chipped paint on the bathroom wall. It was great that the rooms also came with a mini fridge and also a microwave, flat screen tv, sofa bed and a wide desk. The bed was comfortable and tidy and that along with breakfast made our stay great. The only thing that I would change is the young man at the counter was so rude and confused, he turned away many customers saying I don't know to questions he could have easily googled. Luckily one of the ladies in the office was able to come out and accommodate everyone's needs. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The hotel looks nice from the outside and as you walk in the lobby is beautifully designed. The room rates are reasonably priced and includes a complimentary breakfast and free parking. There's a pool and fitness center as well as a bar and conference rooms. We enjoyed our stay and the rooms were clean but upon inspection I did notice stains on some of the towels and chipped paint on the bathroom wall. It was great that the rooms also came with a mini fridge and also a microwave, flat screen tv, sofa bed and a wide desk. The bed was comfortable and tidy and that along with breakfast made our stay great. The only thing that I would change is the young man at the counter was so rude and confused, he turned away many customers saying I don't know to questions he could have easily googled. Luckily one of the ladies in the office was able to come out and accommodate everyone's needs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r493547903-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>493547903</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Great Family Hotel</t>
+  </si>
+  <si>
+    <t>Our 3 kids really enjoyed the outdoor pool, which was a welcome break after a long drive! The room was comfortable and plenty big enough for 5. The breakfast choice was pretty extensive for a hotel breakfast and really great! The kids also like the suckers at the front desk - it's the little things!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r482601036-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>482601036</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Pick your poison</t>
+  </si>
+  <si>
+    <t>Before I get started, I must say hats off to the breakfast staff and the female bartender in the guest lounge. They were GREAT. However, this hotel does not meet Marriott standards. The customer service was a mixed bag of relief personnel perhaps?  Heard more than one employee say that "this is not my regular job."  Does that mean that you deliver zero customer service?  The male bartender clearly resented being torn away from his phone. We also heard a female front desk employee berate a guest in a very loud voice repeatedly. The gentleman was on the mature side but not hard of hearing nor did he lack intelligence. I have never witnessed that at ANY hotel. The room was spacious and had comfortable furniture and a work space but the bathroom shower had mold and mildew and several areas of water damage. The hotel seemed woefully short staffed because rooms were not cleaned until very late in the afternoon. The shower door does not fit correctly so the bathroom floor was wet and thus a safety hazard. Sad, really because we were excited to have the opportunity to stay there. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Before I get started, I must say hats off to the breakfast staff and the female bartender in the guest lounge. They were GREAT. However, this hotel does not meet Marriott standards. The customer service was a mixed bag of relief personnel perhaps?  Heard more than one employee say that "this is not my regular job."  Does that mean that you deliver zero customer service?  The male bartender clearly resented being torn away from his phone. We also heard a female front desk employee berate a guest in a very loud voice repeatedly. The gentleman was on the mature side but not hard of hearing nor did he lack intelligence. I have never witnessed that at ANY hotel. The room was spacious and had comfortable furniture and a work space but the bathroom shower had mold and mildew and several areas of water damage. The hotel seemed woefully short staffed because rooms were not cleaned until very late in the afternoon. The shower door does not fit correctly so the bathroom floor was wet and thus a safety hazard. Sad, really because we were excited to have the opportunity to stay there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r463026283-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>463026283</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Quick stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stopped for a night before heading to our cruise.  Caleb was our front desk person.  He was so kind and even suggested we try Tookies Seafood....great place.  The room was perfect....  we could easily live there.  Comfy bed!  Love the bathroom split. Shower and sink in one and then small sink and toilet in the other.  </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r460527285-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>460527285</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel Near Kemah, but Stylish Barn Doors Don't Work</t>
+  </si>
+  <si>
+    <t>I stayed at this Springhill Suites because it was the closest Marriott property to the Kemah Boardwalk.  The hotel was very nice and new, but the neighborhood was a bit sketchy.  Everything was very new and stylish, but the bathroom layout was strange.  There was a small room with a toilet and sink that reminded me of a tiny house.  It had a barn style door that was difficult to slide open and shut.  There was a larger room with a shower and dressing area that also had a barn style door, and it wouldn't close at all.  It was also very dark.  Everything else about the room was great.  I would definitely recommend this hotel if you are visiting the Kemah Boardwalk area--it was a much better value than the boardwalk hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this Springhill Suites because it was the closest Marriott property to the Kemah Boardwalk.  The hotel was very nice and new, but the neighborhood was a bit sketchy.  Everything was very new and stylish, but the bathroom layout was strange.  There was a small room with a toilet and sink that reminded me of a tiny house.  It had a barn style door that was difficult to slide open and shut.  There was a larger room with a shower and dressing area that also had a barn style door, and it wouldn't close at all.  It was also very dark.  Everything else about the room was great.  I would definitely recommend this hotel if you are visiting the Kemah Boardwalk area--it was a much better value than the boardwalk hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r458959793-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>458959793</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Large rooms, but not really clean.</t>
+  </si>
+  <si>
+    <t>Calm, big rooms, good beds. Unfortunately bed lining was used when enterring the room. Swimmingpool only outside, fitness room very small. Typical americam plastic breakfast, but coffee was good...well for US Style. Lot of restaurants and Supermarket close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Calm, big rooms, good beds. Unfortunately bed lining was used when enterring the room. Swimmingpool only outside, fitness room very small. Typical americam plastic breakfast, but coffee was good...well for US Style. Lot of restaurants and Supermarket close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r422839259-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>422839259</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks</t>
+  </si>
+  <si>
+    <t>We stayed for 2 weeks during a sailing regatta so we got to know the staff and experience all aspects of the hotel. The rooms were comfortable and the breakfast was great for the kids, having a bar available in the lobby made for easy socializing at night.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r401306448-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>401306448</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Great location for Kemah!!!</t>
+  </si>
+  <si>
+    <t>Great staff and very friendly - chemicals they use to clean leave a lingering odor, but at least clean.  I had a few dirty issues with sofa, but left it and didn't complain.  Overall VERY quiet and location for Kemah great, space center is super close!  Rain shower is interesting, but door opens into the shower which makes everything wet.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r395889222-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>395889222</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Perfect for a good night's rest after the Space Centre</t>
+  </si>
+  <si>
+    <t>Clean and cool break from the hot Texas sun after a day at the Houston Space Centre. Just a quick drive along the road toward the bay and close to Kemah amusement pier. Easy check in and out. Good breakfast. Nice set up with separate sink with toilet and another room with sink and shower. Rainfall shower head could use a little CLR to remove calcium build up but otherwise spotless.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r381756980-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>381756980</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Great pre-cruise stop</t>
+  </si>
+  <si>
+    <t>This SpringHill Suites seems brand new.  The property is in great shape although in a strange location and a little hard to find if you're not watching.  It is a very short drive to the Kemah boardwalk and about 30-45 minutes to the cruise terminals. The property was clean and quiet.  Breakfast was standard-nothing special.  The rooms are large, spacious and a very interesting set up. It worked well for my family-traveling with children.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r369113587-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>369113587</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Quiet pre-cruise hotel</t>
+  </si>
+  <si>
+    <t>We stayed here before a cruise leaving out of Galveston. Nothing super special, but it was a nice hotel that was conveniently located for the price. You will drive right past the turn in without even noticing it was there.We had to have a handicap room due to my wife having a broken leg. It was okay, but there was a fairly high lip to get her knee scooter over to get into either the shower or bathroom. It wasnt the most convenient, but we were able to deal with it for a night pretty easily.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r368243396-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>368243396</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Worst breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here on a visit to the Space Centre. Comfortable beds, nice rooms, friendly staff,but the breakfast was served on cardboard plates and cups with plastic cutlery!!!!  I have never experienced this before and have travelled around the world, and stayed in budget hotels.The water for the tea was in a thermos, not exactly hot. The bread labelled croissant was not a croissant, it was just croissant shaped.Cardboard cups and plates. Plastic cutlery.!!!!!!!!!!!!  This is shabby and shows total distain for your customers. Shame on you!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here on a visit to the Space Centre. Comfortable beds, nice rooms, friendly staff,but the breakfast was served on cardboard plates and cups with plastic cutlery!!!!  I have never experienced this before and have travelled around the world, and stayed in budget hotels.The water for the tea was in a thermos, not exactly hot. The bread labelled croissant was not a croissant, it was just croissant shaped.Cardboard cups and plates. Plastic cutlery.!!!!!!!!!!!!  This is shabby and shows total distain for your customers. Shame on you!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r364449142-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>364449142</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Stayed for one night in a room with 2 queen beds. There were 4 of us on a little girls trip to Kemah and stayed at this location since it was close to the Boardwalk as well as for getting to the dock for a sailing adventure. Check in was easy, room was clean and very roomy for 4 women.  In addition to the beds, there was a sofa sectional with a pull out mattress (probably twin size), a desk, and a little bar area with a mini fridge, microwave and coffee maker. Probably the best part was that there was one room that had a bathtub and a sink and another room that had a toilet and a sink. That made it nice with 4 women showering, putting on make up, etc.  There was a great free breakfast in the morning with scrambled eggs, turkey sausage, bagels, croissants, muffins, cereal, oatmeal, lunch meat, cheese, etc., etc.  There is a very nice outdoor patio area with a water wall as well as a really cool indoor seating area in the lobby/bar area.  It was safe, clean and met our needs perfectly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for one night in a room with 2 queen beds. There were 4 of us on a little girls trip to Kemah and stayed at this location since it was close to the Boardwalk as well as for getting to the dock for a sailing adventure. Check in was easy, room was clean and very roomy for 4 women.  In addition to the beds, there was a sofa sectional with a pull out mattress (probably twin size), a desk, and a little bar area with a mini fridge, microwave and coffee maker. Probably the best part was that there was one room that had a bathtub and a sink and another room that had a toilet and a sink. That made it nice with 4 women showering, putting on make up, etc.  There was a great free breakfast in the morning with scrambled eggs, turkey sausage, bagels, croissants, muffins, cereal, oatmeal, lunch meat, cheese, etc., etc.  There is a very nice outdoor patio area with a water wall as well as a really cool indoor seating area in the lobby/bar area.  It was safe, clean and met our needs perfectly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r355390846-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>355390846</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Location is Good, But I'd Stay Elsewhere, Cleanliness not so good</t>
+  </si>
+  <si>
+    <t>We stayed at the SpringHill Suites in Seabrook on the night before leaving for a cruise.  It was not too far from the port and the price was better than hotels on Galveston Island.  
+Overall, I was not impressed with the hotel.  My biggest complaint is about the cleanliness of the hotel.  The place was very busy, lots of guests leaving on a cruise stayed there and a lot of families.  
+Our room was mostly clean, but on the floor there were some pretzels and peanut.  
+The next morning at breakfast, which was adequate, the place was not too clean.  The tables where not wiped down after guests left their tables.  There was food on the floor that stayed there.  The attendants didn't seem to be very on the ball about keeping things clean.  Granted if a guest makes a mess you would think they would clean it up, but they may not.
+Of a health concern, the little refrigerator that had the yogurt in it.  It had a thermometer that read 60 degrees.  When I went took a container of yogurt, it was warm.  Not good!  Not good at all.
+The gentleman at the front desk when we checked in wasn't the friendliest.  He seemed to not be aware of good customer service and just acknowledge a guest that is waiting while you help someone else.  I had a question on the price of the room which took a...We stayed at the SpringHill Suites in Seabrook on the night before leaving for a cruise.  It was not too far from the port and the price was better than hotels on Galveston Island.  Overall, I was not impressed with the hotel.  My biggest complaint is about the cleanliness of the hotel.  The place was very busy, lots of guests leaving on a cruise stayed there and a lot of families.  Our room was mostly clean, but on the floor there were some pretzels and peanut.  The next morning at breakfast, which was adequate, the place was not too clean.  The tables where not wiped down after guests left their tables.  There was food on the floor that stayed there.  The attendants didn't seem to be very on the ball about keeping things clean.  Granted if a guest makes a mess you would think they would clean it up, but they may not.Of a health concern, the little refrigerator that had the yogurt in it.  It had a thermometer that read 60 degrees.  When I went took a container of yogurt, it was warm.  Not good!  Not good at all.The gentleman at the front desk when we checked in wasn't the friendliest.  He seemed to not be aware of good customer service and just acknowledge a guest that is waiting while you help someone else.  I had a question on the price of the room which took a while for him to understand my question.  When we checked out the next morning the gal at the desk was much better.  The pillows were not too comfortable.  Each room has it's own heater/air conditioner which was kind of loud.  We stayed on the ground floor, room 119.  I would recommend staying in a different room.  It was near the elevator and we heard noise from the lobby, elevator and hallway.  The bathroom was strange.  They had two narrow bathrooms next too each other.  One with a toilet, sink and mirror that was not well situated.  The other had the shower and counter with sink and mirror.  The lighting was poor in the room and bathroom.  It wasn't horrible.  But I probably wouldn't stay there again.Getting to the hotel, we ran into a lot of traffic on Saturday with people getting off work from the refineries nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the SpringHill Suites in Seabrook on the night before leaving for a cruise.  It was not too far from the port and the price was better than hotels on Galveston Island.  
+Overall, I was not impressed with the hotel.  My biggest complaint is about the cleanliness of the hotel.  The place was very busy, lots of guests leaving on a cruise stayed there and a lot of families.  
+Our room was mostly clean, but on the floor there were some pretzels and peanut.  
+The next morning at breakfast, which was adequate, the place was not too clean.  The tables where not wiped down after guests left their tables.  There was food on the floor that stayed there.  The attendants didn't seem to be very on the ball about keeping things clean.  Granted if a guest makes a mess you would think they would clean it up, but they may not.
+Of a health concern, the little refrigerator that had the yogurt in it.  It had a thermometer that read 60 degrees.  When I went took a container of yogurt, it was warm.  Not good!  Not good at all.
+The gentleman at the front desk when we checked in wasn't the friendliest.  He seemed to not be aware of good customer service and just acknowledge a guest that is waiting while you help someone else.  I had a question on the price of the room which took a...We stayed at the SpringHill Suites in Seabrook on the night before leaving for a cruise.  It was not too far from the port and the price was better than hotels on Galveston Island.  Overall, I was not impressed with the hotel.  My biggest complaint is about the cleanliness of the hotel.  The place was very busy, lots of guests leaving on a cruise stayed there and a lot of families.  Our room was mostly clean, but on the floor there were some pretzels and peanut.  The next morning at breakfast, which was adequate, the place was not too clean.  The tables where not wiped down after guests left their tables.  There was food on the floor that stayed there.  The attendants didn't seem to be very on the ball about keeping things clean.  Granted if a guest makes a mess you would think they would clean it up, but they may not.Of a health concern, the little refrigerator that had the yogurt in it.  It had a thermometer that read 60 degrees.  When I went took a container of yogurt, it was warm.  Not good!  Not good at all.The gentleman at the front desk when we checked in wasn't the friendliest.  He seemed to not be aware of good customer service and just acknowledge a guest that is waiting while you help someone else.  I had a question on the price of the room which took a while for him to understand my question.  When we checked out the next morning the gal at the desk was much better.  The pillows were not too comfortable.  Each room has it's own heater/air conditioner which was kind of loud.  We stayed on the ground floor, room 119.  I would recommend staying in a different room.  It was near the elevator and we heard noise from the lobby, elevator and hallway.  The bathroom was strange.  They had two narrow bathrooms next too each other.  One with a toilet, sink and mirror that was not well situated.  The other had the shower and counter with sink and mirror.  The lighting was poor in the room and bathroom.  It wasn't horrible.  But I probably wouldn't stay there again.Getting to the hotel, we ran into a lot of traffic on Saturday with people getting off work from the refineries nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r351375956-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>351375956</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfriendly desk staff </t>
+  </si>
+  <si>
+    <t>We arrived 40 mins before 3pm the agent at the desk never said hi or smiled but your early for check in. I said yes but we had called and a gentleman had said it was OK to come in. She stayed unfriendly and went through the hotel bfast,room,and WiFi info. The room was clean and nice.    MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>We arrived 40 mins before 3pm the agent at the desk never said hi or smiled but your early for check in. I said yes but we had called and a gentleman had said it was OK to come in. She stayed unfriendly and went through the hotel bfast,room,and WiFi info. The room was clean and nice.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r340994881-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>340994881</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Our flight into HOU was delayed but we managed to get an earlier flight. Our luggage remained behind and arrived late in the evening. I was tired and did not want to drive back to the airport. Amy, at the front desk, was SUPER helpful and offered to pick up our bags when she got off work. Amazing service!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r340978731-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>340978731</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>The good-  Nice rooms and decent breakfast in a convenient location.The bad-  We were there for 3 nights.  The first 2 days, housekeeping didn't come until after 4pm even though I requested early service.  Housekeeping staff talked loudly in halls and played music so loudly that I had to get off a phone call because it was so disruptive.  On the last day, I requested a late checkout.  They would  not even consider it and housekeeping knocked on my door repeatedly all morning even though I told them I would not be leaving the room until noon checkout.  I find it strange that they can't get to our rooms before 4pm on the other days but the day we check out feeling very rushed.  I need to be in this area again for 2 weeks in July and will stay anyplace other than here ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>The good-  Nice rooms and decent breakfast in a convenient location.The bad-  We were there for 3 nights.  The first 2 days, housekeeping didn't come until after 4pm even though I requested early service.  Housekeeping staff talked loudly in halls and played music so loudly that I had to get off a phone call because it was so disruptive.  On the last day, I requested a late checkout.  They would  not even consider it and housekeeping knocked on my door repeatedly all morning even though I told them I would not be leaving the room until noon checkout.  I find it strange that they can't get to our rooms before 4pm on the other days but the day we check out feeling very rushed.  I need to be in this area again for 2 weeks in July and will stay anyplace other than here ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r340791464-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>340791464</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Great hotel near NASA and Kemah</t>
+  </si>
+  <si>
+    <t>We had a great room, with a wonderful rain shower feature. Loved the separate work area as well.  The hotel was full when we stayed there, so breakfast was crowded, but they kept it well stocked. I'd stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r330251571-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>330251571</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Comfortable beds, friendly staff.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 2 nights during Labor Day weekend.  Quick and easy check in process. The hotel was a close distance to the Kemah Boardwalk.  Having the bathroom separate from the shower was a very nice touch.  I don't think I quite liked the shower head directly above, on the ceiling, I couldn't figure out what other guests were complaining about as I was reading reviews prior to my stay, but after staying here, I now know what they mean, about the awkward set up.I realized several hours after check-out that I left my favorite t-shirt in the closet in the room, which was completely my fault :(.  I contacted the hotel for several days, but my shirt was not found.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 2 nights during Labor Day weekend.  Quick and easy check in process. The hotel was a close distance to the Kemah Boardwalk.  Having the bathroom separate from the shower was a very nice touch.  I don't think I quite liked the shower head directly above, on the ceiling, I couldn't figure out what other guests were complaining about as I was reading reviews prior to my stay, but after staying here, I now know what they mean, about the awkward set up.I realized several hours after check-out that I left my favorite t-shirt in the closet in the room, which was completely my fault :(.  I contacted the hotel for several days, but my shirt was not found.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r329831151-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>329831151</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Beautiful hotel and Amy</t>
+  </si>
+  <si>
+    <t>First this is a beautiful property,very clean,reasonably priced,and close to Port! While here to board a Princess Cruise on Nov.29, fog rolled in and at least 2500 people were displaced,I walked into Springhill,cab meter rolling,and there was Amy,big smile,( not the first one to get there) we are all overwhelmed,she was reassuring,typing,taking calls,and something about her let us know we were all gonna be ok, This property speaks for itself,but my husband and I travel the world and there's nothing like that personal touch to send it over the top! Planning a cruise out of Houston,or a weekend at Kemah Boardwalk,stay at Springhill suites,you won't be disappointed!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r327231250-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>327231250</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My friends and I made reservations at this hotel. This hotel was beautiful. It was very colorful, clean, fresh, and roomy. The staff was very kind and helpful.Thanks for a awesome stay here at Springhill Inn Suite Marriott.  I recommend this hotel to others and I will return when I'm in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r307611842-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>307611842</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel for the $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved my stay. I requested early check and upper level and they allowed me to get my room an hour before I said I would be there and got top floor. Room is huge. Love how the toilet and shower are separate. I wish more hotels did this. Shower had waterfall shower head. A+. Bed was comfortable. Pool was decent size and had lay out chairs. All in all great hotel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r305864285-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>305864285</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Worth the money</t>
+  </si>
+  <si>
+    <t>Rooms are huge and very modern and CLEAN. Love the two separate bathrooms which makes it perfect for a few guest in 1 suite ! Great prices and loved that they are very very very nice when you check in. Booked my Bridal Shower guest there and have already almost filled up hotel for the Wedding and can't be more than overjoyed with the hotel.  Only thing that needs help is the Breakfast. Pretty rough but FREE !</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r303078058-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>303078058</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Room door open when we returned!</t>
+  </si>
+  <si>
+    <t>Hotel door was open when we returned several hours later! Weird phone calls and no one there, someone trying to enter our room in the morning and it was not housekeeping. To top it all off, we were considerate to talk away from other guests at checkout after having the police there the night before and no management approached us or arrived early to see how we felt. Instead we were dismissed, never called and only recieved an email after the manager was contacted by customer care corporate. We have stayed at many Marriotts and have never had such inconsiderate and poorly managed issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded August 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2015</t>
+  </si>
+  <si>
+    <t>Hotel door was open when we returned several hours later! Weird phone calls and no one there, someone trying to enter our room in the morning and it was not housekeeping. To top it all off, we were considerate to talk away from other guests at checkout after having the police there the night before and no management approached us or arrived early to see how we felt. Instead we were dismissed, never called and only recieved an email after the manager was contacted by customer care corporate. We have stayed at many Marriotts and have never had such inconsiderate and poorly managed issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r291796208-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>291796208</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Good location. Musty rooms</t>
+  </si>
+  <si>
+    <t>My stay was nice. Nice staff. My room, 130, had a musty smell to it. The staff said they would try to remove the odor on day 2, but it didn't work. The rooms were very nice. Great layout. The toilet and shower were in two separate rooms. The desk / work station was spacious. Nice couch. The closet is a stand up unit. My pet peeve is the alarm clock set to the wrong time. The staff fixed this on day two. The basic need to there for travelers. Pet peeve 2; don't have a program to save the environment and ignore it. I hang up my towel so it does not have be washed for my three day stay. The cleaners still replaced the towel. Why have the program and hang up the little signs of you are not going to follow it. Just saying...MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was nice. Nice staff. My room, 130, had a musty smell to it. The staff said they would try to remove the odor on day 2, but it didn't work. The rooms were very nice. Great layout. The toilet and shower were in two separate rooms. The desk / work station was spacious. Nice couch. The closet is a stand up unit. My pet peeve is the alarm clock set to the wrong time. The staff fixed this on day two. The basic need to there for travelers. Pet peeve 2; don't have a program to save the environment and ignore it. I hang up my towel so it does not have be washed for my three day stay. The cleaners still replaced the towel. Why have the program and hang up the little signs of you are not going to follow it. Just saying...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r285393474-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>285393474</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Take It From A Local</t>
+  </si>
+  <si>
+    <t>We stay here the night before leaving out of Hobby Airport. About 20 miles away it still is quick trip to Hobby. Located just west of highway 146 on the north side of  NASA Pkwy, it is close to many food places and just a short distance to Kemah . I found the room like new, spotless, quiet and would recommend this looking at this price level.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r279244722-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>279244722</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Nice, quiet place, good breakfast , well maintained rooms</t>
+  </si>
+  <si>
+    <t>The cons were 1) we had spill stains on our room's carpet2) the pool was muddy and filled with insects3) the printer didn't workThe pros were1) the overall room was very clean2) nice shower , separate toilet, comfy beds.3) it is nice and quiet in the lobby during the afternoon and evenings 4) they have a nice selection of breakfast:cereals, toast, muffins, bagels, fruits, scrambled eggs .....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r262135093-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>262135093</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Kemah rocks</t>
+  </si>
+  <si>
+    <t>The SpringHill Suites in Kemah were clean and friendly with very good amenities. If you go, be sure to grab dinner at T-Bone Tom's - it is only a short drive from the SHS and the food and atmosphere are great.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r262133463-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>262133463</t>
+  </si>
+  <si>
+    <t>Pleasant place for a family</t>
+  </si>
+  <si>
+    <t>We stayed two nights and used the pullout couch. The staff was friendly and the buffet generous. The room was in good condition. The grounds were quiet and a 5-min drive to Kemah and NASA. I wouldn't try to walk to Kemah though. No complaints here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r261959508-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>261959508</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Springhill Suites Houston NASA/Seabrook</t>
+  </si>
+  <si>
+    <t>When I checked into the hotel I requested a room with a bathtub.  The lady at the desk stated that if I wanted a room with a bathtub, it would  be a handicap accessible room.  I stated that it would be o.k.   The staff at the hotel was very accommodating.I was pleasantly surprised with the room I had.  The bed was very comfortable.  The noise level of the hotel was very good.  The hotel had 2 separate bathroom areas. One area had a toilet and a sink.  The second area had a bathtub/shower and another sink.There was also a bar in the hotel where you could sit and order alcoholic beverages and sodas.  The breakfast was very gooMoreShow less</t>
+  </si>
+  <si>
+    <t>When I checked into the hotel I requested a room with a bathtub.  The lady at the desk stated that if I wanted a room with a bathtub, it would  be a handicap accessible room.  I stated that it would be o.k.   The staff at the hotel was very accommodating.I was pleasantly surprised with the room I had.  The bed was very comfortable.  The noise level of the hotel was very good.  The hotel had 2 separate bathroom areas. One area had a toilet and a sink.  The second area had a bathtub/shower and another sink.There was also a bar in the hotel where you could sit and order alcoholic beverages and sodas.  The breakfast was very gooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r253101345-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>253101345</t>
+  </si>
+  <si>
+    <t>02/07/2015</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>I was in town two weeks for business. The location was close to work and to all the sights (Kemah boardwalk, Galveston, and NASA). The breakfast was bountiful (waffles on the weekend) and included healthy choices. The hotel staff went out of their way to way to make my time in Seabrook Great. I was truly impressed with the customer service. Special recognition goes to Todd and Randell. I would return to this hotel for business or pleasure.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r248718523-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>248718523</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Small town island feel!!!</t>
+  </si>
+  <si>
+    <t>So the hotel is like behind another building but once you get in to the hotel it is freaking awesomely cute. And the staff was TOTALLY awesome. All of them where friendly the local area was a cute small town island like feeling. My boyfriend and me had so much fun at Kemah board walk and then a bar called Cabo up the road! Just with in walking distance!Totally Reccomend!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r248109346-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>248109346</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel and friendly staff</t>
+  </si>
+  <si>
+    <t>It was hard to find at first because its hidden behind a business but it was well worth it once I found the hotel. The staff was friendly and helpful. The room was great and the bed was comfortable. I recommend this hotel, especially if you have a family because they had a couch that made into a bed and extra bedding. The breakfast was pretty good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r247091876-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>247091876</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>NO! A Thousand Times NO!</t>
+  </si>
+  <si>
+    <t>I don't even know where to start. I'm a very experienced international traveler, who has always relied on Marriott or Hilton as a brand with high standards and well-trained personnel . I've been a loyal Marriott's Rewards Elite member for years .Prior to a Christmas cruise, I contacted the Springhill Seabrook/NASA directly for the most reliable information, and was told that the hotel offered a free shuttle to and from the cruise terminal. I asked specifically if a pharmacy was located nearby, as arriving air guests must comply with TSA restrictions and often purchase liquor or other TSA-prohibited items at a local store prior to ship embarkation. I was told there was a Walgreen's 1 ½ blocks away---an easy walk. Since I knew Springhill doesn't have a sit-down lunch/dinner restaurant, I also inquired about nearby restaurants and was told there were many within easy walking distance. When we checked in, I was distressed to learn that there never has been a  free shuttle to the cruise terminal, that Walgreen's was at least 2 miles away and "nobody else ever complained about taking a taxi there" and that we should order from a delivery service because the restaurants were too far away to walk to in the rain. The information I had received and based my reservation upon was completely misleading! I called Marriott's Customer Service and the agent spoke with the hotel manager who kindly agreed to credit me with...I don't even know where to start. I'm a very experienced international traveler, who has always relied on Marriott or Hilton as a brand with high standards and well-trained personnel . I've been a loyal Marriott's Rewards Elite member for years .Prior to a Christmas cruise, I contacted the Springhill Seabrook/NASA directly for the most reliable information, and was told that the hotel offered a free shuttle to and from the cruise terminal. I asked specifically if a pharmacy was located nearby, as arriving air guests must comply with TSA restrictions and often purchase liquor or other TSA-prohibited items at a local store prior to ship embarkation. I was told there was a Walgreen's 1 ½ blocks away---an easy walk. Since I knew Springhill doesn't have a sit-down lunch/dinner restaurant, I also inquired about nearby restaurants and was told there were many within easy walking distance. When we checked in, I was distressed to learn that there never has been a  free shuttle to the cruise terminal, that Walgreen's was at least 2 miles away and "nobody else ever complained about taking a taxi there" and that we should order from a delivery service because the restaurants were too far away to walk to in the rain. The information I had received and based my reservation upon was completely misleading! I called Marriott's Customer Service and the agent spoke with the hotel manager who kindly agreed to credit me with 1 night's stay (out of 2 nights), give me a bottle of wine and pay for the shuttle to the ship terminal. My account statement I received under my door at night showed a credit for 1 night's stay. I noticed that the invoice to Corporate for the $13 split bottle of wine (as sold in the lobby) was written as a $27 bottle of wine , even though Springhill only sell splits and none more expensive than $15. On embarkation day, the lobby was filled with irate guests---who had also been told free shuttle service was available and were now being forced into private taxis---sometimes splitting up families with young children. The entire scene was total chaos, with front desk agents or managers actually *yelling* at guests. It appears that this hotel either is totally unprepared to deal with an influx of cruise ship passengers, or they do not WANT to.  This is such a shame because the rooms and amenities are lovely. The staff and management, however, desperately need training.The hotel itself sits off the street behind a semi-vacant office building. There is a lovely bistro located just on the other side of the office building (therefore not visible from the hotel), but the staff seemed unaware of it's existence. The restaurant proprietor said he and other local enterprises have tried repeatedly to reach out to Springhill to mutually generate business, but to no avail. They do not pass out or otherwise display the business cards left for guests.When I returned home I noticed that Springhill had charged my credit card for the 2nd night of accomodations--even though I am in possession of the original account statement crediting me for 1 night's lodging. When I called Customer Service, I was told the only way for me to deal with this is to speak with the Springhill general manager who rudely told me she had decided to charge me for the 2nd night because the credit "must have been in error." She changed the billing on her own, without my authorization. I'm so glad I kept my original statement as proof of the credit.I am beyond disappointed and angered by her reaction, defensiveness and hostility. She never once apologized for the misleading information I was given and now I have what I think is a fraudulent charge on my bill which I will dispute. My only recourse it to let everyone know that this property is so poorly managed (even staff members confided to me that here are serious "management problems") that it creates unnecessary frustration and anxiety pre or post cruise. Perhaps during the regular work week, the high standards we've come to expect from the Marriott brand are more apparent. I hope someone from Marriott Corporate stays here on a cruise weekend so they can see firsthand how guests are mistreated. It is appalling, and there is no excuse whatsoever for the way many people were misled.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded January 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2015</t>
+  </si>
+  <si>
+    <t>I don't even know where to start. I'm a very experienced international traveler, who has always relied on Marriott or Hilton as a brand with high standards and well-trained personnel . I've been a loyal Marriott's Rewards Elite member for years .Prior to a Christmas cruise, I contacted the Springhill Seabrook/NASA directly for the most reliable information, and was told that the hotel offered a free shuttle to and from the cruise terminal. I asked specifically if a pharmacy was located nearby, as arriving air guests must comply with TSA restrictions and often purchase liquor or other TSA-prohibited items at a local store prior to ship embarkation. I was told there was a Walgreen's 1 ½ blocks away---an easy walk. Since I knew Springhill doesn't have a sit-down lunch/dinner restaurant, I also inquired about nearby restaurants and was told there were many within easy walking distance. When we checked in, I was distressed to learn that there never has been a  free shuttle to the cruise terminal, that Walgreen's was at least 2 miles away and "nobody else ever complained about taking a taxi there" and that we should order from a delivery service because the restaurants were too far away to walk to in the rain. The information I had received and based my reservation upon was completely misleading! I called Marriott's Customer Service and the agent spoke with the hotel manager who kindly agreed to credit me with...I don't even know where to start. I'm a very experienced international traveler, who has always relied on Marriott or Hilton as a brand with high standards and well-trained personnel . I've been a loyal Marriott's Rewards Elite member for years .Prior to a Christmas cruise, I contacted the Springhill Seabrook/NASA directly for the most reliable information, and was told that the hotel offered a free shuttle to and from the cruise terminal. I asked specifically if a pharmacy was located nearby, as arriving air guests must comply with TSA restrictions and often purchase liquor or other TSA-prohibited items at a local store prior to ship embarkation. I was told there was a Walgreen's 1 ½ blocks away---an easy walk. Since I knew Springhill doesn't have a sit-down lunch/dinner restaurant, I also inquired about nearby restaurants and was told there were many within easy walking distance. When we checked in, I was distressed to learn that there never has been a  free shuttle to the cruise terminal, that Walgreen's was at least 2 miles away and "nobody else ever complained about taking a taxi there" and that we should order from a delivery service because the restaurants were too far away to walk to in the rain. The information I had received and based my reservation upon was completely misleading! I called Marriott's Customer Service and the agent spoke with the hotel manager who kindly agreed to credit me with 1 night's stay (out of 2 nights), give me a bottle of wine and pay for the shuttle to the ship terminal. My account statement I received under my door at night showed a credit for 1 night's stay. I noticed that the invoice to Corporate for the $13 split bottle of wine (as sold in the lobby) was written as a $27 bottle of wine , even though Springhill only sell splits and none more expensive than $15. On embarkation day, the lobby was filled with irate guests---who had also been told free shuttle service was available and were now being forced into private taxis---sometimes splitting up families with young children. The entire scene was total chaos, with front desk agents or managers actually *yelling* at guests. It appears that this hotel either is totally unprepared to deal with an influx of cruise ship passengers, or they do not WANT to.  This is such a shame because the rooms and amenities are lovely. The staff and management, however, desperately need training.The hotel itself sits off the street behind a semi-vacant office building. There is a lovely bistro located just on the other side of the office building (therefore not visible from the hotel), but the staff seemed unaware of it's existence. The restaurant proprietor said he and other local enterprises have tried repeatedly to reach out to Springhill to mutually generate business, but to no avail. They do not pass out or otherwise display the business cards left for guests.When I returned home I noticed that Springhill had charged my credit card for the 2nd night of accomodations--even though I am in possession of the original account statement crediting me for 1 night's lodging. When I called Customer Service, I was told the only way for me to deal with this is to speak with the Springhill general manager who rudely told me she had decided to charge me for the 2nd night because the credit "must have been in error." She changed the billing on her own, without my authorization. I'm so glad I kept my original statement as proof of the credit.I am beyond disappointed and angered by her reaction, defensiveness and hostility. She never once apologized for the misleading information I was given and now I have what I think is a fraudulent charge on my bill which I will dispute. My only recourse it to let everyone know that this property is so poorly managed (even staff members confided to me that here are serious "management problems") that it creates unnecessary frustration and anxiety pre or post cruise. Perhaps during the regular work week, the high standards we've come to expect from the Marriott brand are more apparent. I hope someone from Marriott Corporate stays here on a cruise weekend so they can see firsthand how guests are mistreated. It is appalling, and there is no excuse whatsoever for the way many people were misled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r246504772-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>246504772</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Great family place</t>
+  </si>
+  <si>
+    <t>We went down with the family for some fun in the Seabrook/Kemah area. We picked the Springhill Suites for location, price, and free breakfast.  We were happy with the afore mentioned and the rooms. They gave us adjoining rooms that were big and comfortable. The property is in great shape and includes some very modern features.  The breakfast area is well disguised outside of serving hours. The breakfast is simple and sufficient with eggs, sausage and waffles as the main features.One thing to know is that this hotel draws groups preparing to leave on a cruise and the large numbers can fill the hotel and the breakfast area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r246499455-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>246499455</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel to stay at close to all. Room was nicely decorated and very spacious. The whole place was very clean and the breakfast was a good start to the day. I would stay there again. The staff was friendly and very attentive. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r241113994-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>241113994</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Cruise stop over</t>
+  </si>
+  <si>
+    <t>We stayed here the night before a Princess cruise leaving out of Baytown. This was the perfect stop over point. We were traveling with my in-laws and the room has a sitting room up front that was great for all of us. The room has a small desk with a frosted glass divider between the beds and sitting area which was nice. The beds were comfortable and had LED reading lights. The shower and toilet are in two separate rooms each having its own sink. The only downside was a few small stains on the carpet. It was a great stop over before the cruise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r240375916-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>240375916</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Nice Property and Great Location to Kemah</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay, the front desk was very nice and helpful. Room was clean and comfortable.Location is excellent, just over the bridge to Kemah Boardwalk. We were able to take a cab to Kemah and it was only $8 or $10. We would stay again if going to Kemah.Only bad thing were some drunken guests that apparently forgot what room they were in and tried their key card in our door and one of their party was sitting on the floor in the hall drunk and obnoxious. This is not the hotels fault. Some people are just inconsiderate.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r237820934-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>237820934</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel In Seabrook</t>
+  </si>
+  <si>
+    <t>The Marriott Springhill Suites is a recent addition to the Seabrook community. It is a contemporary bistro hotel designed for the business traveler and families. Located nearthe intersection of NASA Parkway and HWY 146 the hotel is hidden behind an office complex, which keeps the property quiet and secluded. The lobby is very modern with sweeping draperies sectioning off lounge areas. There is the mini store and cocktail bar located in the lobby. The rooms are that of a typical business hotel, everything you need for rest or business is in the room.They have a small gym and pool on the west side and a nice outdoor sitting area with water feature on the east side next to the bar. Of course rooms include breakfast. Major kudos to the staff! Always very friendly and helpful to the quests. On a recent visit I watched the bartender help a guest with dinner reservations, very nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>The Marriott Springhill Suites is a recent addition to the Seabrook community. It is a contemporary bistro hotel designed for the business traveler and families. Located nearthe intersection of NASA Parkway and HWY 146 the hotel is hidden behind an office complex, which keeps the property quiet and secluded. The lobby is very modern with sweeping draperies sectioning off lounge areas. There is the mini store and cocktail bar located in the lobby. The rooms are that of a typical business hotel, everything you need for rest or business is in the room.They have a small gym and pool on the west side and a nice outdoor sitting area with water feature on the east side next to the bar. Of course rooms include breakfast. Major kudos to the staff! Always very friendly and helpful to the quests. On a recent visit I watched the bartender help a guest with dinner reservations, very nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r236920718-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>236920718</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Very Nice &amp; Close To Cruise Terminal</t>
+  </si>
+  <si>
+    <t>We were taking a cruise out of the Bayport Cruise Terminal and after driving 10 hours from Kansas were looking forward to a good night's sleep before our cruise the following day. After reading the reviews here, we chose this hotel. 
+The lobby was breezy and fun and swathed with turquoise curtains in the comfortable seating area. There was a small bar and a very nice outside seating area with a pretty water feature. There was a business area with computers and a workout room. Also, a nice pool area. The property was clean and well-maintained. 
+Check-in was prompt and friendly and we felt welcomed. Our room on the second floor was a double queen studio. There was a living area/office that was partitioned off with glass from the sleeping area. We REALLY liked the separate room with a toilet and sink from the shower. Traveling with our adult daughter, we could utilize both areas at the same time. The beds were extremely comfortable with lots of pillows. In the room was a coffeemaker, microwave and small fridge. 
+We had breakfast the following morning and it was your standard hotel continental breakfast fare. There were scrambled eggs, make-your-own waffles, sausage, cereals, fruit — that sort of thing. It was hot and fresh.
+We did have an issue with a bolt coming off of the toilet seat. We made a call to the front desk and in less than 5 minutes,...We were taking a cruise out of the Bayport Cruise Terminal and after driving 10 hours from Kansas were looking forward to a good night's sleep before our cruise the following day. After reading the reviews here, we chose this hotel. The lobby was breezy and fun and swathed with turquoise curtains in the comfortable seating area. There was a small bar and a very nice outside seating area with a pretty water feature. There was a business area with computers and a workout room. Also, a nice pool area. The property was clean and well-maintained. Check-in was prompt and friendly and we felt welcomed. Our room on the second floor was a double queen studio. There was a living area/office that was partitioned off with glass from the sleeping area. We REALLY liked the separate room with a toilet and sink from the shower. Traveling with our adult daughter, we could utilize both areas at the same time. The beds were extremely comfortable with lots of pillows. In the room was a coffeemaker, microwave and small fridge. We had breakfast the following morning and it was your standard hotel continental breakfast fare. There were scrambled eggs, make-your-own waffles, sausage, cereals, fruit — that sort of thing. It was hot and fresh.We did have an issue with a bolt coming off of the toilet seat. We made a call to the front desk and in less than 5 minutes, maintenance arrived and repaired it. Housekeeping was just down the hall from our room when we arrived and we needed an extra glass in our room. The young lady literally ran to get us the extra glass. Kudos for prompt &amp; friendly service! There is a lot to do within close driving distance in the area. Nasa is very close. We had burgers at Tookies that night, and the next day on our way to the cruise ship we were able to stop at a Walgreens. The cruise port was about 15 minutes away. We had no complaints about the Springhill Suites and would definitely stay here again next time we sail out of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were taking a cruise out of the Bayport Cruise Terminal and after driving 10 hours from Kansas were looking forward to a good night's sleep before our cruise the following day. After reading the reviews here, we chose this hotel. 
+The lobby was breezy and fun and swathed with turquoise curtains in the comfortable seating area. There was a small bar and a very nice outside seating area with a pretty water feature. There was a business area with computers and a workout room. Also, a nice pool area. The property was clean and well-maintained. 
+Check-in was prompt and friendly and we felt welcomed. Our room on the second floor was a double queen studio. There was a living area/office that was partitioned off with glass from the sleeping area. We REALLY liked the separate room with a toilet and sink from the shower. Traveling with our adult daughter, we could utilize both areas at the same time. The beds were extremely comfortable with lots of pillows. In the room was a coffeemaker, microwave and small fridge. 
+We had breakfast the following morning and it was your standard hotel continental breakfast fare. There were scrambled eggs, make-your-own waffles, sausage, cereals, fruit — that sort of thing. It was hot and fresh.
+We did have an issue with a bolt coming off of the toilet seat. We made a call to the front desk and in less than 5 minutes,...We were taking a cruise out of the Bayport Cruise Terminal and after driving 10 hours from Kansas were looking forward to a good night's sleep before our cruise the following day. After reading the reviews here, we chose this hotel. The lobby was breezy and fun and swathed with turquoise curtains in the comfortable seating area. There was a small bar and a very nice outside seating area with a pretty water feature. There was a business area with computers and a workout room. Also, a nice pool area. The property was clean and well-maintained. Check-in was prompt and friendly and we felt welcomed. Our room on the second floor was a double queen studio. There was a living area/office that was partitioned off with glass from the sleeping area. We REALLY liked the separate room with a toilet and sink from the shower. Traveling with our adult daughter, we could utilize both areas at the same time. The beds were extremely comfortable with lots of pillows. In the room was a coffeemaker, microwave and small fridge. We had breakfast the following morning and it was your standard hotel continental breakfast fare. There were scrambled eggs, make-your-own waffles, sausage, cereals, fruit — that sort of thing. It was hot and fresh.We did have an issue with a bolt coming off of the toilet seat. We made a call to the front desk and in less than 5 minutes, maintenance arrived and repaired it. Housekeeping was just down the hall from our room when we arrived and we needed an extra glass in our room. The young lady literally ran to get us the extra glass. Kudos for prompt &amp; friendly service! There is a lot to do within close driving distance in the area. Nasa is very close. We had burgers at Tookies that night, and the next day on our way to the cruise ship we were able to stop at a Walgreens. The cruise port was about 15 minutes away. We had no complaints about the Springhill Suites and would definitely stay here again next time we sail out of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r235153041-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>235153041</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Amazing!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for a family wedding and it was nothing but perfect! The rooms were fabulous. They put all of our 10 rooms together. The breakfast was great, staff was nice.  Location was just over the bridge from Kemah. There was a beautiful outdoor lounge area and an area that turned into a small lobby bar, so there is something for everyone. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r235097952-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>235097952</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>All I kept saying is WOW</t>
+  </si>
+  <si>
+    <t>From now I will try to look for Springhill Suites as my first choice. This place is ultra modern and I typically like traditional.  From the lobby to the rooms it is streamline, clean, and very cool!  I loved the sliding doors to the shower and water closet rooms - both separate. Plus you get a separate area for couch and desk.  They use lots of frosted glass and everything is compact yet spacious.   They are not right on the water like we thought but just north of the boardwalk and Kemah area,  You probably could walk over the bridge but I'd drive.  Also close to NASA. We loved the facility and actually drove down to Galvestone for the day. We took 146 down and it took about 25 minutes to get to the beaches. Definitely a great place to stay and not near any of the busy Kemah area stuff but close.MoreShow less</t>
+  </si>
+  <si>
+    <t>From now I will try to look for Springhill Suites as my first choice. This place is ultra modern and I typically like traditional.  From the lobby to the rooms it is streamline, clean, and very cool!  I loved the sliding doors to the shower and water closet rooms - both separate. Plus you get a separate area for couch and desk.  They use lots of frosted glass and everything is compact yet spacious.   They are not right on the water like we thought but just north of the boardwalk and Kemah area,  You probably could walk over the bridge but I'd drive.  Also close to NASA. We loved the facility and actually drove down to Galvestone for the day. We took 146 down and it took about 25 minutes to get to the beaches. Definitely a great place to stay and not near any of the busy Kemah area stuff but close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r220690496-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>220690496</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>This was a great place to stay. If we come back to the area we will stay here again. The lobby area is a little interesting, but fun. The rooms were big, clean and "modern." We came up to go to a baseball game, but wanted to go to Kemah, so we ended up staying toward Kemah, which was a 5-10 min drive. Located close to NASA and Clearlake. The staff was great. The breakfast was just a quick start breakfast but decent. Location is a little weird because it is kind of off the main road, but accessible.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r220557574-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>220557574</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Will be back!</t>
+  </si>
+  <si>
+    <t>Just got home from a week long stay at this hotel. The location was perfect, and the overall look of the hotel was awesome. The rooms are nice and large with comfy beds. The hotel staff was super friendly, and ready to help in any way possible. Bar was a nice touch, and the patio area made for lovely evenings. Breakfast was fabulous, and offered quite a variety. I will definitely visit this place again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r218776020-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>218776020</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Trip with Gransons</t>
+  </si>
+  <si>
+    <t>Hotel is in excellent location and the staff are very friendly.  That was the good. Now for the bad. The room 327 had a bad odor almost smelled like old urine. When I mentioned it to the desk staff she came to the room to confirm the smell. She said she also Smelled the odor and was very apologetic ..she said she would find some air something to freshen the air.  She could not find anything and she apologized again but the hotel was booked so we had deal with the stinky room. They added 1000 points to my rewards account. Great! Except the room still was stinky!  So we accepted the fact that we had to deal with stinky room.  This was not the only problem with room 327.  After getting pizza for the boys, one Of them noticed a BIG ROACH on the wall.  Again, I went to the desk staff to share my experience and ask for some bug spray or a big net to the catch the roach.    Again no bug spray or net. I caught roach and and presented to the desk staff. Again they were very apologetic and presented us with a basket of water chez it's and candy, they also said they would discount my bill. They did discount the bill $15.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Hotel is in excellent location and the staff are very friendly.  That was the good. Now for the bad. The room 327 had a bad odor almost smelled like old urine. When I mentioned it to the desk staff she came to the room to confirm the smell. She said she also Smelled the odor and was very apologetic ..she said she would find some air something to freshen the air.  She could not find anything and she apologized again but the hotel was booked so we had deal with the stinky room. They added 1000 points to my rewards account. Great! Except the room still was stinky!  So we accepted the fact that we had to deal with stinky room.  This was not the only problem with room 327.  After getting pizza for the boys, one Of them noticed a BIG ROACH on the wall.  Again, I went to the desk staff to share my experience and ask for some bug spray or a big net to the catch the roach.    Again no bug spray or net. I caught roach and and presented to the desk staff. Again they were very apologetic and presented us with a basket of water chez it's and candy, they also said they would discount my bill. They did discount the bill $15.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r214101321-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>214101321</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Comfy bed, helpful staff, rude guests</t>
+  </si>
+  <si>
+    <t>Stayed here over the 4th of July weekend. Good location off the main road which makes for a quiet night of sleep. Comfortable beds, great pillows, nice modern rooms with plenty of outlets to plug in our phones, tablets etc...Staff was very friendly and helpful...here's where it gets fun...our fellow guests at breakfast...Free Breakfast is buffet style, it was busy, dining area was cluttered and did not have enough room to accommodate everyone probably due to it being a long weekend. Poor breakfast staff could not replenish food fast enough which made some people pile on their plates like there was not going to be anymore food...ever... I saw a lot of people throwing out food because they over served themselves apparently fearing sudden starvation... People were stealing chairs from our table when we put our coffee down to serve ourselves the first time and when we got up for a second serving another guest just cleared our table and took claim. Even though she offered it back, we just turned around, gave up, had enough and went back to our room and got on with our day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here over the 4th of July weekend. Good location off the main road which makes for a quiet night of sleep. Comfortable beds, great pillows, nice modern rooms with plenty of outlets to plug in our phones, tablets etc...Staff was very friendly and helpful...here's where it gets fun...our fellow guests at breakfast...Free Breakfast is buffet style, it was busy, dining area was cluttered and did not have enough room to accommodate everyone probably due to it being a long weekend. Poor breakfast staff could not replenish food fast enough which made some people pile on their plates like there was not going to be anymore food...ever... I saw a lot of people throwing out food because they over served themselves apparently fearing sudden starvation... People were stealing chairs from our table when we put our coffee down to serve ourselves the first time and when we got up for a second serving another guest just cleared our table and took claim. Even though she offered it back, we just turned around, gave up, had enough and went back to our room and got on with our day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r212927420-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>212927420</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Good breakfast</t>
+  </si>
+  <si>
+    <t>First time staying in Seabrook, very close to Kemah but it rained all day so we spent more time in hotel then I wanted.  Hotel AC was cold, lots of mirrors, good for my daughter and I.  The front desk staff was helpful during check in, recommended a restaurant.  I did not like the set up with the toilet separate from the shower, it just threw me off.  Bed and pillow were comfortable.  Breakfast was substantial and surprising.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r208532042-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>208532042</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Vacationing in area</t>
+  </si>
+  <si>
+    <t>This hotel was very modern and new.  Rooms were well laid out and spacious.  Breakfast was extensive, pool area clean and easily accessible.  Located near Kemah Boardwalk area and lots of restaurants.  A bit pricey.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Terri A, General Manager at SpringHill Suites Houston NASA/Seabrook, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was very modern and new.  Rooms were well laid out and spacious.  Breakfast was extensive, pool area clean and easily accessible.  Located near Kemah Boardwalk area and lots of restaurants.  A bit pricey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r194463750-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>194463750</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Here on a family vacation...rooms clean and spacious.  Family of 4...2 queen beds and we had a crib. Bathroom kinda weird we had a room with the shower head in the ceiling...in-laws had regular shower but with jets shooting into crotch area.  Nice free breakfast in am. Only complaint is where are the staff when you need them. Our room key kept deactivating and there was always an empty desk...waiting with a toddler and infant...not fun. Minutes from Kemah and space center..Plenty to do. Worth it.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r194007743-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>194007743</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Awesome hospitality!</t>
+  </si>
+  <si>
+    <t>The staff is just great!  Southern hospitality at its finest.  The whole hotel is very CLEAN and the rooms are perfect for us "road warriors".  Free internet, lots of place to plug in the gadgets, work desk, nice TV's, and QUIET during the night. Bar in the evenings :) and Great FREE breakfast, too.  Good restaurants in the area.  i would def stay here again.  Kianne will be ready to greet you when you arrive!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r193679993-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>193679993</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Unexpected surprise</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel on business February 7th.  It was in close proximity to the cruise port which is where I needed to be.  From the outside it was a basic Marriott Springhill, but once I walked in I was pleasantly surprised.  The lobby decor was newer and very welcoming.  The agent at check-in was outstanding, she was courteous, personable and refreshing.  The room was even a bigger surprise-newly remodeled and very up to date and comfortable.  Down-side would be the breakfast-a non-descript fare and the ridiculously expensive cab ride from Hobby to the hotel.  Would stay at this location again when in the area (but would rent a car).MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel on business February 7th.  It was in close proximity to the cruise port which is where I needed to be.  From the outside it was a basic Marriott Springhill, but once I walked in I was pleasantly surprised.  The lobby decor was newer and very welcoming.  The agent at check-in was outstanding, she was courteous, personable and refreshing.  The room was even a bigger surprise-newly remodeled and very up to date and comfortable.  Down-side would be the breakfast-a non-descript fare and the ridiculously expensive cab ride from Hobby to the hotel.  Would stay at this location again when in the area (but would rent a car).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r189511979-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>189511979</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>"Great Place!"</t>
+  </si>
+  <si>
+    <t>I brought my husband to Kemah for our anniversary and stayed here November 23. The girl at the front desk was incredibly nice and the atmosphere of the place was sheek and modern. I Absolutely loved our very clean and comfortable room. The bathroom was separate from the shower which was a big asset. The breakfast was better than what you would expect for being free. We will definitely stay here again!!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r186816355-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>186816355</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, quiet, good breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is perfectly fine.  We found the room very comfortable, and despite having a convention of Harley cyclists using this as one of their weekend hotels, we had a very quiet room and good nights' sleep.  A buffet breakfast was included which had not only the usual cereals, yogurts and juices, but also scrambled eggs, bacon/sausage and a decent fruit bowl.  All in all, a perfectly comfy stay.  The hotel is near the Houston space flight centre as well as the Kemah Boardwalk, both highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r186136013-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>186136013</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Modern style very comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here on business for 3 nights. It is laid out like all the SpringHill Suites line. Extremely clean. Staff very friendly and helpful. The free breakfast buffet is a little better than most other free buffets by other hotels. The rooms do not have a bathtub, but a very roomy shower. It is a modern style room. As you would expect from a fairly ne hotel, everything works super and very clean!! Location is great for southeastern Houston area. The 24 hour snack area is one of the better stocked and restocked.that I have seen at a SpringHills  suite line. I will stay hear again next month..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r171260247-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>171260247</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Clean, modern hotel!</t>
+  </si>
+  <si>
+    <t>My 8yr old son and I stayed here for 2 nights for a little getaway. We went to the NASA Spacecenter which is a few miles away, Galveston beach was a 50 minute drive (easy drive though) and Kemah Boardwalk which was only a couple minutes away. So, the location was great for where we wanted to visit. The room was large, clean and modern with a semi-separated living area and bed area. Mini fridge and microwave came in very handy for us. The pool was small but nice. Breakfast was your typical complimentary breakfast...oatmeal, cereal, yogurt, bagels, bread to toast, muffins, eggs both days, sausage links one day, potatoes w/ peppers the other day, fresh fruit. We aren't picky eaters so all of it was perfect to start our day.  Front desk staff was very nice. I didn't get her name but the young blonde girl that checked us in was very polite and offered dining suggestions in the area. Thank you for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>My 8yr old son and I stayed here for 2 nights for a little getaway. We went to the NASA Spacecenter which is a few miles away, Galveston beach was a 50 minute drive (easy drive though) and Kemah Boardwalk which was only a couple minutes away. So, the location was great for where we wanted to visit. The room was large, clean and modern with a semi-separated living area and bed area. Mini fridge and microwave came in very handy for us. The pool was small but nice. Breakfast was your typical complimentary breakfast...oatmeal, cereal, yogurt, bagels, bread to toast, muffins, eggs both days, sausage links one day, potatoes w/ peppers the other day, fresh fruit. We aren't picky eaters so all of it was perfect to start our day.  Front desk staff was very nice. I didn't get her name but the young blonde girl that checked us in was very polite and offered dining suggestions in the area. Thank you for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r171213470-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>171213470</t>
+  </si>
+  <si>
+    <t>Kemah/NASA vacation</t>
+  </si>
+  <si>
+    <t>This Hotel is New... We had a double queen suite with a sleeper sofa. The room was spacious and comfortable for me and wife with our three kids. (teens and preteen) The hotel is located about a 5 minute drive from Kemah. One draw back is that the hotel is located behind another office building so no good views.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r169806514-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>169806514</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>WOW!!</t>
+  </si>
+  <si>
+    <t>This place is amazing! The room is huge, trendy, comfy, clean and functional! The sofa pullout bed was perfect for our son, and there is even a sliding window on the desk, so we could block out the light from our side of the room while he was sleeping! And the BED! It was the most comfortable bed I have ever slept on! It was like sleeping on a marshmallow! It made me cry to sleep in my horrible bed at home after having slept in the hotel's bed. I believe I will be back to this hotel just so I can peek under the sheets and find out what kind of bed that was!MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is amazing! The room is huge, trendy, comfy, clean and functional! The sofa pullout bed was perfect for our son, and there is even a sliding window on the desk, so we could block out the light from our side of the room while he was sleeping! And the BED! It was the most comfortable bed I have ever slept on! It was like sleeping on a marshmallow! It made me cry to sleep in my horrible bed at home after having slept in the hotel's bed. I believe I will be back to this hotel just so I can peek under the sheets and find out what kind of bed that was!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r166752181-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>166752181</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Nice Modern Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for one night after a b-day party in the Kemah area.  This hotel is like a 3 minute drive from the Kemah Boardwalk...great location!  Check-in was quick and easy and we were given a coupon for a free appetizer at a Kemah Boardwalk restraunt.  The lobby was very colorful and modern and there was also a small "pantry" area near the front desk to buy snacks and cold drinks.  Our room was also very modern and spacious.  The entry area had a couch, table, fridge, microwave and work desk with chair.  Further in was the King bed, closet and split bathroom...there was a separate room for the toilet and shower.  I liked that touch, but the one that had the toilet was SUPER small, with a tiny pedestal sink.  the mirrors in the toilet room were skinny and positioned weird so they weren't very functional.  The bathroom with shower was spacious and the walk-in shower had a really nice, ceiling mounted shower head with jets that you could turn on that came from the wall.  Unfortunately I'm short so those shot right at my face...didn't get to use them :)  This hotel advertises a free continental breakfast and it's pretty much what you expect...not really that good.  Pastries that aren't fresh and something that passes for eggs.  So, don't bank on breakfast here...you'll likely want to go out somewhere.  That being said, I'd love to stay here again...Stayed here for one night after a b-day party in the Kemah area.  This hotel is like a 3 minute drive from the Kemah Boardwalk...great location!  Check-in was quick and easy and we were given a coupon for a free appetizer at a Kemah Boardwalk restraunt.  The lobby was very colorful and modern and there was also a small "pantry" area near the front desk to buy snacks and cold drinks.  Our room was also very modern and spacious.  The entry area had a couch, table, fridge, microwave and work desk with chair.  Further in was the King bed, closet and split bathroom...there was a separate room for the toilet and shower.  I liked that touch, but the one that had the toilet was SUPER small, with a tiny pedestal sink.  the mirrors in the toilet room were skinny and positioned weird so they weren't very functional.  The bathroom with shower was spacious and the walk-in shower had a really nice, ceiling mounted shower head with jets that you could turn on that came from the wall.  Unfortunately I'm short so those shot right at my face...didn't get to use them :)  This hotel advertises a free continental breakfast and it's pretty much what you expect...not really that good.  Pastries that aren't fresh and something that passes for eggs.  So, don't bank on breakfast here...you'll likely want to go out somewhere.  That being said, I'd love to stay here again if I'm in the area in need of a room in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for one night after a b-day party in the Kemah area.  This hotel is like a 3 minute drive from the Kemah Boardwalk...great location!  Check-in was quick and easy and we were given a coupon for a free appetizer at a Kemah Boardwalk restraunt.  The lobby was very colorful and modern and there was also a small "pantry" area near the front desk to buy snacks and cold drinks.  Our room was also very modern and spacious.  The entry area had a couch, table, fridge, microwave and work desk with chair.  Further in was the King bed, closet and split bathroom...there was a separate room for the toilet and shower.  I liked that touch, but the one that had the toilet was SUPER small, with a tiny pedestal sink.  the mirrors in the toilet room were skinny and positioned weird so they weren't very functional.  The bathroom with shower was spacious and the walk-in shower had a really nice, ceiling mounted shower head with jets that you could turn on that came from the wall.  Unfortunately I'm short so those shot right at my face...didn't get to use them :)  This hotel advertises a free continental breakfast and it's pretty much what you expect...not really that good.  Pastries that aren't fresh and something that passes for eggs.  So, don't bank on breakfast here...you'll likely want to go out somewhere.  That being said, I'd love to stay here again...Stayed here for one night after a b-day party in the Kemah area.  This hotel is like a 3 minute drive from the Kemah Boardwalk...great location!  Check-in was quick and easy and we were given a coupon for a free appetizer at a Kemah Boardwalk restraunt.  The lobby was very colorful and modern and there was also a small "pantry" area near the front desk to buy snacks and cold drinks.  Our room was also very modern and spacious.  The entry area had a couch, table, fridge, microwave and work desk with chair.  Further in was the King bed, closet and split bathroom...there was a separate room for the toilet and shower.  I liked that touch, but the one that had the toilet was SUPER small, with a tiny pedestal sink.  the mirrors in the toilet room were skinny and positioned weird so they weren't very functional.  The bathroom with shower was spacious and the walk-in shower had a really nice, ceiling mounted shower head with jets that you could turn on that came from the wall.  Unfortunately I'm short so those shot right at my face...didn't get to use them :)  This hotel advertises a free continental breakfast and it's pretty much what you expect...not really that good.  Pastries that aren't fresh and something that passes for eggs.  So, don't bank on breakfast here...you'll likely want to go out somewhere.  That being said, I'd love to stay here again if I'm in the area in need of a room in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r165996002-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>165996002</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Really Enjoyed Our Stay</t>
+  </si>
+  <si>
+    <t>Had a really nice stay at the Springhill Suites in Seabrook. The motif is somewhat of a "60s Chic" look and it was nice. The toilet is in a completely separate room from the shower which I guess can be good or bad. The shower had some pretty unique settings on it as well (you'll see when you get there!). The bed was comfortable and I had a great nights rest. Try this place out. You'll like it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r164966766-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>164966766</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Good Family Stay</t>
+  </si>
+  <si>
+    <t>Our party of 8 stayed here this last weekend.  The staff was very considerate with our requests - placed us in rooms next to each other, gave good restaurant recommendations, etc.  For our family, we really liked the room set-up.  The "living" area has a L-shaped sectional that folds out to a sleeper sofa (we had to go downstairs for the linens), a desk, mini-fridge and microwave.  The "bedroom" area was very comfy (mattresses are firm).  There is a deep closet with an ironing board and iron, plus a 3-drawer dresser.  The TV could be positioned to face either the living area or the bedroom area.  The bathroom is split up into a water closet with a toilet and sink and then a separate room with the tub/shower and a larger sink with counter space.  This made it really easy to get ready in the morning.  It also featured a mirror that doesn't fog up - nice touch.  
+Everything was clean and seemed fairly new.  Breakfast was nice - waffle machines, breads, yogurt, fruit, cereal, oatmeal, and a hot option (sausage and eggs, for example).  On busy days it was hard to find seating at a table.  We liked the location of the hotel.  It was about 10 minutes from NASA and about 5 minutes from Kemah.  We drove down to Galveston one day and it took about 30-40 minutes, which was worth it to us to save the money...Our party of 8 stayed here this last weekend.  The staff was very considerate with our requests - placed us in rooms next to each other, gave good restaurant recommendations, etc.  For our family, we really liked the room set-up.  The "living" area has a L-shaped sectional that folds out to a sleeper sofa (we had to go downstairs for the linens), a desk, mini-fridge and microwave.  The "bedroom" area was very comfy (mattresses are firm).  There is a deep closet with an ironing board and iron, plus a 3-drawer dresser.  The TV could be positioned to face either the living area or the bedroom area.  The bathroom is split up into a water closet with a toilet and sink and then a separate room with the tub/shower and a larger sink with counter space.  This made it really easy to get ready in the morning.  It also featured a mirror that doesn't fog up - nice touch.  Everything was clean and seemed fairly new.  Breakfast was nice - waffle machines, breads, yogurt, fruit, cereal, oatmeal, and a hot option (sausage and eggs, for example).  On busy days it was hard to find seating at a table.  We liked the location of the hotel.  It was about 10 minutes from NASA and about 5 minutes from Kemah.  We drove down to Galveston one day and it took about 30-40 minutes, which was worth it to us to save the money a Galveston 1-star hotel would have cost us during the summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our party of 8 stayed here this last weekend.  The staff was very considerate with our requests - placed us in rooms next to each other, gave good restaurant recommendations, etc.  For our family, we really liked the room set-up.  The "living" area has a L-shaped sectional that folds out to a sleeper sofa (we had to go downstairs for the linens), a desk, mini-fridge and microwave.  The "bedroom" area was very comfy (mattresses are firm).  There is a deep closet with an ironing board and iron, plus a 3-drawer dresser.  The TV could be positioned to face either the living area or the bedroom area.  The bathroom is split up into a water closet with a toilet and sink and then a separate room with the tub/shower and a larger sink with counter space.  This made it really easy to get ready in the morning.  It also featured a mirror that doesn't fog up - nice touch.  
+Everything was clean and seemed fairly new.  Breakfast was nice - waffle machines, breads, yogurt, fruit, cereal, oatmeal, and a hot option (sausage and eggs, for example).  On busy days it was hard to find seating at a table.  We liked the location of the hotel.  It was about 10 minutes from NASA and about 5 minutes from Kemah.  We drove down to Galveston one day and it took about 30-40 minutes, which was worth it to us to save the money...Our party of 8 stayed here this last weekend.  The staff was very considerate with our requests - placed us in rooms next to each other, gave good restaurant recommendations, etc.  For our family, we really liked the room set-up.  The "living" area has a L-shaped sectional that folds out to a sleeper sofa (we had to go downstairs for the linens), a desk, mini-fridge and microwave.  The "bedroom" area was very comfy (mattresses are firm).  There is a deep closet with an ironing board and iron, plus a 3-drawer dresser.  The TV could be positioned to face either the living area or the bedroom area.  The bathroom is split up into a water closet with a toilet and sink and then a separate room with the tub/shower and a larger sink with counter space.  This made it really easy to get ready in the morning.  It also featured a mirror that doesn't fog up - nice touch.  Everything was clean and seemed fairly new.  Breakfast was nice - waffle machines, breads, yogurt, fruit, cereal, oatmeal, and a hot option (sausage and eggs, for example).  On busy days it was hard to find seating at a table.  We liked the location of the hotel.  It was about 10 minutes from NASA and about 5 minutes from Kemah.  We drove down to Galveston one day and it took about 30-40 minutes, which was worth it to us to save the money a Galveston 1-star hotel would have cost us during the summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r163357401-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>163357401</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Pleasant, Quiet, Professionally Run</t>
+  </si>
+  <si>
+    <t>This facility is set back off the throughway unlike other hotels yet is close to the lake, NASA and many good places to eat or shop.  The decor is good and the facility is well managed.  Staff is friendly and helpful with a delightful lobby area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r162886588-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>162886588</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>OK and Out of the Way</t>
+  </si>
+  <si>
+    <t>We attended a wedding over the Memorial Day Weekend. Because we were quoted a reduced "Friends and Family" rate, we decided to stay at the SpringHill Suites. As with other SpringHill Suites, the architecture was so-so from the outside, looking like an industrial building with a small swimming pool.The inside was nicer with a multi-function lounge and eating area just off the main entrance.  Our room was clean and spacious - no complaints there. The "free" breakfast was worth at least that much. It is close to NASA and to the town of Seabrook. Not to far from Clear Lake.  But we had activities all over the Houston area and this was far distant.  Should have stayed at the SpringHill Suites near the Hobby airport.Room service was a little slow.  The staff was nice and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>We attended a wedding over the Memorial Day Weekend. Because we were quoted a reduced "Friends and Family" rate, we decided to stay at the SpringHill Suites. As with other SpringHill Suites, the architecture was so-so from the outside, looking like an industrial building with a small swimming pool.The inside was nicer with a multi-function lounge and eating area just off the main entrance.  Our room was clean and spacious - no complaints there. The "free" breakfast was worth at least that much. It is close to NASA and to the town of Seabrook. Not to far from Clear Lake.  But we had activities all over the Houston area and this was far distant.  Should have stayed at the SpringHill Suites near the Hobby airport.Room service was a little slow.  The staff was nice and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r157923053-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>157923053</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Well designed rooms in a convenient location with free breakfast</t>
+  </si>
+  <si>
+    <t>My favorite part about this hotel was that the rooms were arranged in an unusual but very useful fashion. They had two bathroom areas, one for the toilet and one for the shower. Both areas had sinks. This made it very easy for two people to get ready at the same time. The bed was very comfortable too. The complimentary hot breakfast was an added bonus. Our room had a view of the bay. The location is very close to Kemah and only a 30-45 minute drive from Houston. I would stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r152951949-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>152951949</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Modern and new</t>
+  </si>
+  <si>
+    <t>This past visit was my second, and this hotel is my favorite to stay in for business near NASA. I love the modern and new decor and room layouts. It is set back a bit off the main road, which I like. It seems very hidden and private. I stayed for almost two weeks on business in January, and I very much enjoyed the support of the staff during my stay. They tended to my every need with a smile. I also love the rain style shower. Other notes: the internet was consistent and solidly fast, rooms were very clean, and breakfast was good. I enjoy staying here and will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>This past visit was my second, and this hotel is my favorite to stay in for business near NASA. I love the modern and new decor and room layouts. It is set back a bit off the main road, which I like. It seems very hidden and private. I stayed for almost two weeks on business in January, and I very much enjoyed the support of the staff during my stay. They tended to my every need with a smile. I also love the rain style shower. Other notes: the internet was consistent and solidly fast, rooms were very clean, and breakfast was good. I enjoy staying here and will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r152008871-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>152008871</t>
+  </si>
+  <si>
+    <t>02/12/2013</t>
+  </si>
+  <si>
+    <t>Unique hotel, modern, comfortable</t>
+  </si>
+  <si>
+    <t>Very modern. Very clean. Unusual, efficient room floor plan. I love the bathroom setup: one door is a toilet and a sink and behind another door is an amazing shower, dressing area with large sink area. My only negative for this hotel: not only is the noise level high from the hall with people coming and going and having conversation; I could actually hear people talking in the parking lot. Even with that said, I would stay here again.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r150838971-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>150838971</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>SELDOM RATE A PROPERTY EXCELLENT</t>
+  </si>
+  <si>
+    <t>Wow!  been a long tme since staying at Springhill, but if thie s is an example I will go out of my way to stay at another Marriott Springhill in the future.  This must be a new property as everything was pristine, quite a modern design, outstanidngh room lay out.  For example the bath was seperated with shower and nice large vanity in one room and water closet in separate. Breafast was fine, good coffee etc. Only issues was screw up in reservations for one in our  party of 7.  While hard to assess blame, ( central reeservations vs th eperson calling in ??) they messed up phone change in rooms, and they deleted one reservation in our group.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow!  been a long tme since staying at Springhill, but if thie s is an example I will go out of my way to stay at another Marriott Springhill in the future.  This must be a new property as everything was pristine, quite a modern design, outstanidngh room lay out.  For example the bath was seperated with shower and nice large vanity in one room and water closet in separate. Breafast was fine, good coffee etc. Only issues was screw up in reservations for one in our  party of 7.  While hard to assess blame, ( central reeservations vs th eperson calling in ??) they messed up phone change in rooms, and they deleted one reservation in our group.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r148402414-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>148402414</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We love the style of these...very fresh lobby and decor. Love the room set up. Our floor had a weird odor and the air conditioning/heater in our room was on the fritz with weird noises, but nothing major. Breakfast was good, location was good and the staff very friendly. Will stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r148234150-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>148234150</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>SpringHill Suites near NASA</t>
+  </si>
+  <si>
+    <t>New looking hotel located near NASA.  Many stores and restaurants are located nearby.  The staff was very attentive and knew the area well.  The room had a very nice layout and was very clean.  The TV worked well and the bed was very comfortable.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r146562288-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>146562288</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Nice and Clean &amp; Near NASA</t>
+  </si>
+  <si>
+    <t>Perfect spot for me to prepare for meeting with NASA.  Nice choice of restaurants nearby and things to do.  Staff knows area well and assisted in providing insights on the local area.The new room layouts make Springhills' and up and comer on my list of places to stay.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r143613285-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>143613285</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Bad, Bad, Bad</t>
+  </si>
+  <si>
+    <t>I was expecting your standard SpringHill Suites. A little bit lower end of the Marriott scale, but perfectly serviceable. This hotel was a complete disaster. Despite being relatively new, the room had dirty carpet and worn furniture. The bathrooms weren't particularly clean. The service was non-existent to hostile. I called down in the morning to ask for shampoo and conditioner which had not been stocked, and I was told they would send someone up when they had time, probably about 30 minutes. I told her that was not acceptable, and she said what do expect we are not a full service hotel.The breakfast is the standard (i.e. not very good Sysco frozen pre-made gunk) fare for this type of place. On two days I noticed spilled coffee on the floor and countertop, food crumbs about the breakfast area, and generally dirty tables.All of the new SpringHill Suites have a contemporary design that I find lacks functionality. The window shades don't close completely, the couch is not comfortable, the coffee table is small and awkward, and I just don't get the opaque glass sliding door that separates the shower from the main room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I was expecting your standard SpringHill Suites. A little bit lower end of the Marriott scale, but perfectly serviceable. This hotel was a complete disaster. Despite being relatively new, the room had dirty carpet and worn furniture. The bathrooms weren't particularly clean. The service was non-existent to hostile. I called down in the morning to ask for shampoo and conditioner which had not been stocked, and I was told they would send someone up when they had time, probably about 30 minutes. I told her that was not acceptable, and she said what do expect we are not a full service hotel.The breakfast is the standard (i.e. not very good Sysco frozen pre-made gunk) fare for this type of place. On two days I noticed spilled coffee on the floor and countertop, food crumbs about the breakfast area, and generally dirty tables.All of the new SpringHill Suites have a contemporary design that I find lacks functionality. The window shades don't close completely, the couch is not comfortable, the coffee table is small and awkward, and I just don't get the opaque glass sliding door that separates the shower from the main room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r140731251-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>140731251</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Layout is strange and breakfast is not attractive</t>
+  </si>
+  <si>
+    <t>We stayed there over the weekend in mid September. The staff was nice and helpful. We had a room with two full size beds for three of us. The layout of the room was strange. The doors of the bathroom, the closet and the toilet were all lined up right in front of the two beds. It's weird. I have never seen this arrangement before in my many years of travelling. Bring your own pillow if you are a picky sleeper. None of the 6 little pillows pleased us. The room decor and color are leaning towards contemporary. It has a small fridge and a microwave. I was a little surprise that there was no basic utensils such as forks or spoons in the suite room. The shower tub includes a pair of lower back massage jets and that was a thoughtful idea.  The breakfast was not attractive at all. Not much of of choices, very disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We stayed there over the weekend in mid September. The staff was nice and helpful. We had a room with two full size beds for three of us. The layout of the room was strange. The doors of the bathroom, the closet and the toilet were all lined up right in front of the two beds. It's weird. I have never seen this arrangement before in my many years of travelling. Bring your own pillow if you are a picky sleeper. None of the 6 little pillows pleased us. The room decor and color are leaning towards contemporary. It has a small fridge and a microwave. I was a little surprise that there was no basic utensils such as forks or spoons in the suite room. The shower tub includes a pair of lower back massage jets and that was a thoughtful idea.  The breakfast was not attractive at all. Not much of of choices, very disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r139586922-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>139586922</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Business Stay @ Springhill Suites Seabrook TX</t>
+  </si>
+  <si>
+    <t>I stayed at this Springhill Suites for a 5 day business stay.  It is in a convenient location, plenty of parking, and it's easy to visit the Kemah boardwalk are with a short drive.
+The property was very clean and well decorated.  My room was completely comfortable.  The staff at the front desk was friendly and helpful.
+A couple of issues that I feel could be easily corrected:
+When I made my reservations, I asked for a room far away from the elevator.  I reiterated this request when I checked in and mentioned that I was sensitive to noise late at night.  I received a room on the 3rd floor near the end of the hallway.  This met my requirement to be away from the elevator.  The 2nd day of my stay, the staff moved a young couple in with a newborn baby right next to my room.  To make matters worse, the rooms contained a connecting door, which allowed more sounds to travel through.  The newborn infant cried quite a bit and even woke me up in the middle of the night. I did complain the second night (which is when I realized the sound was coming from right next door) and I was able to move my room. The hotel was NOT full and the staff should have been more conscientious about placing a noisy infant in a room next to a client who requested a quiet room....I stayed at this Springhill Suites for a 5 day business stay.  It is in a convenient location, plenty of parking, and it's easy to visit the Kemah boardwalk are with a short drive.The property was very clean and well decorated.  My room was completely comfortable.  The staff at the front desk was friendly and helpful.A couple of issues that I feel could be easily corrected:When I made my reservations, I asked for a room far away from the elevator.  I reiterated this request when I checked in and mentioned that I was sensitive to noise late at night.  I received a room on the 3rd floor near the end of the hallway.  This met my requirement to be away from the elevator.  The 2nd day of my stay, the staff moved a young couple in with a newborn baby right next to my room.  To make matters worse, the rooms contained a connecting door, which allowed more sounds to travel through.  The newborn infant cried quite a bit and even woke me up in the middle of the night. I did complain the second night (which is when I realized the sound was coming from right next door) and I was able to move my room. The hotel was NOT full and the staff should have been more conscientious about placing a noisy infant in a room next to a client who requested a quiet room.Second complaint concerned the breakfast.  Frozen egg patties were unappetizing. The egg patties and frozen sausage patties were the only hot food.  Skip the breakfast.Third concern... the elevator broke down twice in 5 days.  There's obviously some problem the staff was aware of because they knew to go to a control room and reset something.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this Springhill Suites for a 5 day business stay.  It is in a convenient location, plenty of parking, and it's easy to visit the Kemah boardwalk are with a short drive.
+The property was very clean and well decorated.  My room was completely comfortable.  The staff at the front desk was friendly and helpful.
+A couple of issues that I feel could be easily corrected:
+When I made my reservations, I asked for a room far away from the elevator.  I reiterated this request when I checked in and mentioned that I was sensitive to noise late at night.  I received a room on the 3rd floor near the end of the hallway.  This met my requirement to be away from the elevator.  The 2nd day of my stay, the staff moved a young couple in with a newborn baby right next to my room.  To make matters worse, the rooms contained a connecting door, which allowed more sounds to travel through.  The newborn infant cried quite a bit and even woke me up in the middle of the night. I did complain the second night (which is when I realized the sound was coming from right next door) and I was able to move my room. The hotel was NOT full and the staff should have been more conscientious about placing a noisy infant in a room next to a client who requested a quiet room....I stayed at this Springhill Suites for a 5 day business stay.  It is in a convenient location, plenty of parking, and it's easy to visit the Kemah boardwalk are with a short drive.The property was very clean and well decorated.  My room was completely comfortable.  The staff at the front desk was friendly and helpful.A couple of issues that I feel could be easily corrected:When I made my reservations, I asked for a room far away from the elevator.  I reiterated this request when I checked in and mentioned that I was sensitive to noise late at night.  I received a room on the 3rd floor near the end of the hallway.  This met my requirement to be away from the elevator.  The 2nd day of my stay, the staff moved a young couple in with a newborn baby right next to my room.  To make matters worse, the rooms contained a connecting door, which allowed more sounds to travel through.  The newborn infant cried quite a bit and even woke me up in the middle of the night. I did complain the second night (which is when I realized the sound was coming from right next door) and I was able to move my room. The hotel was NOT full and the staff should have been more conscientious about placing a noisy infant in a room next to a client who requested a quiet room.Second complaint concerned the breakfast.  Frozen egg patties were unappetizing. The egg patties and frozen sausage patties were the only hot food.  Skip the breakfast.Third concern... the elevator broke down twice in 5 days.  There's obviously some problem the staff was aware of because they knew to go to a control room and reset something.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r135207569-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>135207569</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Wonderful!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful location- close to Kemah and NASA! Also, the hotel is very clean, renovated, and modern. We stayed in a room with 2 Queen Beds and a sofabed, and it was very large and more than enough space. Also, the breakfast is very good, with waffles, eggs, sausage, and pastries. Overall, I would definitely stay here again if in the area! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r134779055-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>134779055</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>Very quiet with great breakfast.  Close to NASA, Kemah and Galveston.  Lots to see and do in the area!  We will return!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r134624048-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>134624048</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Nice and quiet place close to everything: NASA, Kemah &amp; Seabrook</t>
+  </si>
+  <si>
+    <t>Nice, quiet area with delicious breakfast close to NASA, Kemah &amp; Seabrook. Lots to do for the whole family. Great restaurants nearby: Landry's (Seafood) &amp; Saltgrass Steakhouse.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r130307320-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>130307320</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Was great for a night near Kemah!</t>
+  </si>
+  <si>
+    <t>My husband and I were cruising out of Galveston and wanted to spend a night near Kemah so we could enjoy the boardwalk. Our first room was clean. The carpet was a bit stained, but we encountered a problem with the AC unit outside making a really loud rumbling sound. All was redeemed when they immediately offered to move us to another room. That room was clean and the carpet was spotless. We slept fine. The next morning we went down to the breakfast but it was pretty picked over so we left and went to Waffle House. No real complaints at this place. It was clean and just what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My husband and I were cruising out of Galveston and wanted to spend a night near Kemah so we could enjoy the boardwalk. Our first room was clean. The carpet was a bit stained, but we encountered a problem with the AC unit outside making a really loud rumbling sound. All was redeemed when they immediately offered to move us to another room. That room was clean and the carpet was spotless. We slept fine. The next morning we went down to the breakfast but it was pretty picked over so we left and went to Waffle House. No real complaints at this place. It was clean and just what we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r129544566-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>129544566</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Only Book a room here if you want them to give your room away.</t>
+  </si>
+  <si>
+    <t>I had book a room here, got my confirmation, arrived and the person at the desk stated they gave my room away and sent me to a Super 8 down the road.  I had traveled 6 hours that day only to have to get in my car and find another hotel.  I am a gold member in Marriott and why this hotel choose to treat me this way is beyond me but I will never stay at a Marriott again.  They charged my credit card and it took me a week to get my money back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r128555176-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>128555176</t>
+  </si>
+  <si>
+    <t>04/24/2012</t>
+  </si>
+  <si>
+    <t>Just OK.</t>
+  </si>
+  <si>
+    <t>Eh...it's OK.  Here's the good &amp; bad of it.Good: location, cleanliness, &amp; friendly staff.Bad:    - THE most UNCOMFORTABLE mattress of any hotel in which I've stayed in the last 5 years.  Two days after my stay and my back is still sore.   - NOISY!  I am not a light sleeper but every conversation, opening/closing door, etc., reverberates inside the room.   - No alternate to the rainforest shower head, which means you may have to do some crazy gymnastics to avoid getting your hair wet</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r119949050-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>119949050</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Clean and reasonable</t>
+  </si>
+  <si>
+    <t>We like to stay at the Springhill Suites because their rooms are large enough to accommodate us and our 4 small children. They serve a full breakfast complete with Texas shaped waffles. My only complaint is they were unable to deliver extra towels or bedding because they didn't have staff to run them to our room. Slight annoyance, but we will stay there again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r118629834-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>118629834</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Spring Wedding</t>
+  </si>
+  <si>
+    <t>I had a wedding in League City in April and we used this hotel for our guests.  It was great in all aspects; convenience, service, accomodations, entertainment, and it looks awesome! We had over 20 rooms booked for friends, family, and even us, the bride and groom.  The rooms are very different, the design and furniture are very interesting.  Nice colors and almost seems like you at a beach house. Since we had most of our guest here from out of town, it was great that we are exactly 1.4 miles from The Kemah Boarwalk, which our guests loved.  The Space Center is maybe 10 minutes away, there is live music in many areas of Seabrook, and it is a nice getaway from the city.  The Final Four was gonig on this same weekend, so it was good to be away from that hustle.  Breakfast is hot and several choices. Texas shape waffle iron seemed to be a popular choice. There is a bar inside the lobby, as well as a nice looking pool, that  I never got to touch.  The staff is very friendly.  I came in contact with many different staff members and they were all very good people to interact with.  They made us feel like more than just guests.  Definetely recommed this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I had a wedding in League City in April and we used this hotel for our guests.  It was great in all aspects; convenience, service, accomodations, entertainment, and it looks awesome! We had over 20 rooms booked for friends, family, and even us, the bride and groom.  The rooms are very different, the design and furniture are very interesting.  Nice colors and almost seems like you at a beach house. Since we had most of our guest here from out of town, it was great that we are exactly 1.4 miles from The Kemah Boarwalk, which our guests loved.  The Space Center is maybe 10 minutes away, there is live music in many areas of Seabrook, and it is a nice getaway from the city.  The Final Four was gonig on this same weekend, so it was good to be away from that hustle.  Breakfast is hot and several choices. Texas shape waffle iron seemed to be a popular choice. There is a bar inside the lobby, as well as a nice looking pool, that  I never got to touch.  The staff is very friendly.  I came in contact with many different staff members and they were all very good people to interact with.  They made us feel like more than just guests.  Definetely recommed this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r110650624-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>110650624</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great Service, stayed one night for a short mini vacation get away room was not ready when we checked in but notified front office staff and was promplty taking care of. The room was spacious and added a bonus of having two bathrooms. The location was great close to boardwalk and restaurants and other area attractions. pool was small but nice. When checking out was informed that room was discounted for not being ready during check-in will  stay here again lovely atmosphere in the lobby and outside patio. Great staff , Great service!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r92951478-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>92951478</t>
+  </si>
+  <si>
+    <t>01/14/2011</t>
+  </si>
+  <si>
+    <t>Chic atmosphere and great location great value</t>
+  </si>
+  <si>
+    <t>We booked another hotel in Webster but wanted to stay closer to NASA and Kemah.  The Spring Hill Suites Seabrook was better located.  Plus it is a brand new hotel which made it all the nicer.  It was much more quiet and peaceful than places in Webster that we stayed in the past.  Very modern design and large spacious rooms.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r90247750-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>90247750</t>
+  </si>
+  <si>
+    <t>12/19/2010</t>
+  </si>
+  <si>
+    <t>Really like the new SpringHill design with two bathrooms.  The best part of our trip was a bar in the lobby.   We really enjoyed the hotel's staff.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56646-d1724279-r83577431-SpringHill_Suites_Houston_NASA_Seabrook-Seabrook_Texas.html</t>
+  </si>
+  <si>
+    <t>83577431</t>
+  </si>
+  <si>
+    <t>10/15/2010</t>
+  </si>
+  <si>
+    <t>Brand new, clean, quiet, attentive staff</t>
+  </si>
+  <si>
+    <t>Had a great visit to this new hotel.  I' was teaching a class in the hotel, so stayed here as well, although I'm usually a Hilton guy.  It is brand new, with a great staff.  Rooms are very bright and modern.  Nice breakfast, and a bar for evening wind down.  Good bed and pillows; a must for the business travel.  WiFi was fast, but that could be because there were so few guests.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2318,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2350,5936 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>206</v>
+      </c>
+      <c r="X24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>215</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>223</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>228</v>
+      </c>
+      <c r="X27" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" t="s">
+        <v>131</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>258</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>271</v>
+      </c>
+      <c r="X34" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s">
+        <v>278</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>270</v>
+      </c>
+      <c r="O36" t="s">
+        <v>118</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" t="s">
+        <v>302</v>
+      </c>
+      <c r="K40" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s">
+        <v>304</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>329</v>
+      </c>
+      <c r="X44" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>338</v>
+      </c>
+      <c r="J46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L46" t="s">
+        <v>340</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" t="s">
+        <v>344</v>
+      </c>
+      <c r="L47" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" t="s">
+        <v>348</v>
+      </c>
+      <c r="K48" t="s">
+        <v>349</v>
+      </c>
+      <c r="L48" t="s">
+        <v>350</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>351</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" t="s">
+        <v>354</v>
+      </c>
+      <c r="K49" t="s">
+        <v>355</v>
+      </c>
+      <c r="L49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>357</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J50" t="s">
+        <v>361</v>
+      </c>
+      <c r="K50" t="s">
+        <v>362</v>
+      </c>
+      <c r="L50" t="s">
+        <v>363</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>351</v>
+      </c>
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>365</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>366</v>
+      </c>
+      <c r="J51" t="s">
+        <v>367</v>
+      </c>
+      <c r="K51" t="s">
+        <v>368</v>
+      </c>
+      <c r="L51" t="s">
+        <v>369</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>370</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>371</v>
+      </c>
+      <c r="J52" t="s">
+        <v>372</v>
+      </c>
+      <c r="K52" t="s">
+        <v>373</v>
+      </c>
+      <c r="L52" t="s">
+        <v>374</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>377</v>
+      </c>
+      <c r="J53" t="s">
+        <v>378</v>
+      </c>
+      <c r="K53" t="s">
+        <v>379</v>
+      </c>
+      <c r="L53" t="s">
+        <v>380</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>381</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>382</v>
+      </c>
+      <c r="J54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" t="s">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>386</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55" t="s">
+        <v>388</v>
+      </c>
+      <c r="K55" t="s">
+        <v>389</v>
+      </c>
+      <c r="L55" t="s">
+        <v>390</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>391</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>392</v>
+      </c>
+      <c r="X55" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>395</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>396</v>
+      </c>
+      <c r="J56" t="s">
+        <v>397</v>
+      </c>
+      <c r="K56" t="s">
+        <v>398</v>
+      </c>
+      <c r="L56" t="s">
+        <v>399</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>391</v>
+      </c>
+      <c r="O56" t="s">
+        <v>118</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>401</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>402</v>
+      </c>
+      <c r="J57" t="s">
+        <v>403</v>
+      </c>
+      <c r="K57" t="s">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s">
+        <v>405</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>406</v>
+      </c>
+      <c r="O57" t="s">
+        <v>73</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>408</v>
+      </c>
+      <c r="J58" t="s">
+        <v>409</v>
+      </c>
+      <c r="K58" t="s">
+        <v>410</v>
+      </c>
+      <c r="L58" t="s">
+        <v>411</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>412</v>
+      </c>
+      <c r="O58" t="s">
+        <v>118</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>413</v>
+      </c>
+      <c r="X58" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>416</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>417</v>
+      </c>
+      <c r="J59" t="s">
+        <v>418</v>
+      </c>
+      <c r="K59" t="s">
+        <v>419</v>
+      </c>
+      <c r="L59" t="s">
+        <v>420</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>421</v>
+      </c>
+      <c r="O59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>422</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>423</v>
+      </c>
+      <c r="J60" t="s">
+        <v>424</v>
+      </c>
+      <c r="K60" t="s">
+        <v>425</v>
+      </c>
+      <c r="L60" t="s">
+        <v>426</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>421</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>427</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>428</v>
+      </c>
+      <c r="J61" t="s">
+        <v>429</v>
+      </c>
+      <c r="K61" t="s">
+        <v>430</v>
+      </c>
+      <c r="L61" t="s">
+        <v>431</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>421</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J62" t="s">
+        <v>435</v>
+      </c>
+      <c r="K62" t="s">
+        <v>436</v>
+      </c>
+      <c r="L62" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>438</v>
+      </c>
+      <c r="O62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+      <c r="J63" t="s">
+        <v>441</v>
+      </c>
+      <c r="K63" t="s">
+        <v>442</v>
+      </c>
+      <c r="L63" t="s">
+        <v>443</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>438</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>444</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>445</v>
+      </c>
+      <c r="J64" t="s">
+        <v>446</v>
+      </c>
+      <c r="K64" t="s">
+        <v>447</v>
+      </c>
+      <c r="L64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>438</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>449</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>450</v>
+      </c>
+      <c r="J65" t="s">
+        <v>451</v>
+      </c>
+      <c r="K65" t="s">
+        <v>452</v>
+      </c>
+      <c r="L65" t="s">
+        <v>453</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>455</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>456</v>
+      </c>
+      <c r="J66" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>458</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>459</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>460</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>461</v>
+      </c>
+      <c r="J67" t="s">
+        <v>462</v>
+      </c>
+      <c r="K67" t="s">
+        <v>463</v>
+      </c>
+      <c r="L67" t="s">
+        <v>464</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>459</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>466</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>467</v>
+      </c>
+      <c r="J68" t="s">
+        <v>468</v>
+      </c>
+      <c r="K68" t="s">
+        <v>469</v>
+      </c>
+      <c r="L68" t="s">
+        <v>470</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>471</v>
+      </c>
+      <c r="O68" t="s">
+        <v>118</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>473</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>474</v>
+      </c>
+      <c r="J69" t="s">
+        <v>475</v>
+      </c>
+      <c r="K69" t="s">
+        <v>476</v>
+      </c>
+      <c r="L69" t="s">
+        <v>477</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>471</v>
+      </c>
+      <c r="O69" t="s">
+        <v>73</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>478</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>479</v>
+      </c>
+      <c r="J70" t="s">
+        <v>480</v>
+      </c>
+      <c r="K70" t="s">
+        <v>481</v>
+      </c>
+      <c r="L70" t="s">
+        <v>482</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s">
+        <v>73</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>484</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>485</v>
+      </c>
+      <c r="J71" t="s">
+        <v>486</v>
+      </c>
+      <c r="K71" t="s">
+        <v>487</v>
+      </c>
+      <c r="L71" t="s">
+        <v>488</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>471</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>490</v>
+      </c>
+      <c r="J72" t="s">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s">
+        <v>492</v>
+      </c>
+      <c r="L72" t="s">
+        <v>493</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s">
+        <v>118</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>496</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>497</v>
+      </c>
+      <c r="J73" t="s">
+        <v>498</v>
+      </c>
+      <c r="K73" t="s">
+        <v>499</v>
+      </c>
+      <c r="L73" t="s">
+        <v>500</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>501</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>502</v>
+      </c>
+      <c r="J74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K74" t="s">
+        <v>504</v>
+      </c>
+      <c r="L74" t="s">
+        <v>505</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>506</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>508</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>509</v>
+      </c>
+      <c r="J75" t="s">
+        <v>510</v>
+      </c>
+      <c r="K75" t="s">
+        <v>511</v>
+      </c>
+      <c r="L75" t="s">
+        <v>512</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>513</v>
+      </c>
+      <c r="O75" t="s">
+        <v>131</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>514</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>515</v>
+      </c>
+      <c r="J76" t="s">
+        <v>516</v>
+      </c>
+      <c r="K76" t="s">
+        <v>517</v>
+      </c>
+      <c r="L76" t="s">
+        <v>518</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>506</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>520</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>521</v>
+      </c>
+      <c r="J77" t="s">
+        <v>522</v>
+      </c>
+      <c r="K77" t="s">
+        <v>523</v>
+      </c>
+      <c r="L77" t="s">
+        <v>524</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>525</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>526</v>
+      </c>
+      <c r="J78" t="s">
+        <v>527</v>
+      </c>
+      <c r="K78" t="s">
+        <v>528</v>
+      </c>
+      <c r="L78" t="s">
+        <v>529</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>530</v>
+      </c>
+      <c r="O78" t="s">
+        <v>258</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>531</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" t="s">
+        <v>533</v>
+      </c>
+      <c r="K79" t="s">
+        <v>534</v>
+      </c>
+      <c r="L79" t="s">
+        <v>535</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>536</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>537</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>538</v>
+      </c>
+      <c r="J80" t="s">
+        <v>539</v>
+      </c>
+      <c r="K80" t="s">
+        <v>540</v>
+      </c>
+      <c r="L80" t="s">
+        <v>541</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>542</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>544</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>545</v>
+      </c>
+      <c r="J81" t="s">
+        <v>546</v>
+      </c>
+      <c r="K81" t="s">
+        <v>547</v>
+      </c>
+      <c r="L81" t="s">
+        <v>548</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>549</v>
+      </c>
+      <c r="O81" t="s">
+        <v>131</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>551</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>552</v>
+      </c>
+      <c r="J82" t="s">
+        <v>553</v>
+      </c>
+      <c r="K82" t="s">
+        <v>554</v>
+      </c>
+      <c r="L82" t="s">
+        <v>555</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>556</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>559</v>
+      </c>
+      <c r="J83" t="s">
+        <v>560</v>
+      </c>
+      <c r="K83" t="s">
+        <v>561</v>
+      </c>
+      <c r="L83" t="s">
+        <v>562</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>556</v>
+      </c>
+      <c r="O83" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>563</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>564</v>
+      </c>
+      <c r="J84" t="s">
+        <v>565</v>
+      </c>
+      <c r="K84" t="s">
+        <v>566</v>
+      </c>
+      <c r="L84" t="s">
+        <v>567</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>556</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>568</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>569</v>
+      </c>
+      <c r="J85" t="s">
+        <v>570</v>
+      </c>
+      <c r="K85" t="s">
+        <v>571</v>
+      </c>
+      <c r="L85" t="s">
+        <v>572</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>573</v>
+      </c>
+      <c r="O85" t="s">
+        <v>118</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>574</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>575</v>
+      </c>
+      <c r="J86" t="s">
+        <v>576</v>
+      </c>
+      <c r="K86" t="s">
+        <v>577</v>
+      </c>
+      <c r="L86" t="s">
+        <v>578</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>579</v>
+      </c>
+      <c r="O86" t="s">
+        <v>118</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>581</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>582</v>
+      </c>
+      <c r="J87" t="s">
+        <v>583</v>
+      </c>
+      <c r="K87" t="s">
+        <v>584</v>
+      </c>
+      <c r="L87" t="s">
+        <v>585</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>579</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>586</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>587</v>
+      </c>
+      <c r="J88" t="s">
+        <v>588</v>
+      </c>
+      <c r="K88" t="s">
+        <v>589</v>
+      </c>
+      <c r="L88" t="s">
+        <v>590</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>591</v>
+      </c>
+      <c r="O88" t="s">
+        <v>258</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>592</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>593</v>
+      </c>
+      <c r="J89" t="s">
+        <v>594</v>
+      </c>
+      <c r="K89" t="s">
+        <v>595</v>
+      </c>
+      <c r="L89" t="s">
+        <v>596</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>597</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>598</v>
+      </c>
+      <c r="J90" t="s">
+        <v>599</v>
+      </c>
+      <c r="K90" t="s">
+        <v>600</v>
+      </c>
+      <c r="L90" t="s">
+        <v>601</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>602</v>
+      </c>
+      <c r="O90" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>604</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>605</v>
+      </c>
+      <c r="J91" t="s">
+        <v>606</v>
+      </c>
+      <c r="K91" t="s">
+        <v>607</v>
+      </c>
+      <c r="L91" t="s">
+        <v>608</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>609</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>610</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>611</v>
+      </c>
+      <c r="J92" t="s">
+        <v>612</v>
+      </c>
+      <c r="K92" t="s">
+        <v>613</v>
+      </c>
+      <c r="L92" t="s">
+        <v>614</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>615</v>
+      </c>
+      <c r="O92" t="s">
+        <v>118</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>616</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>617</v>
+      </c>
+      <c r="J93" t="s">
+        <v>618</v>
+      </c>
+      <c r="K93" t="s">
+        <v>607</v>
+      </c>
+      <c r="L93" t="s">
+        <v>619</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>620</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60197</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>621</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>622</v>
+      </c>
+      <c r="J94" t="s">
+        <v>623</v>
+      </c>
+      <c r="K94" t="s">
+        <v>624</v>
+      </c>
+      <c r="L94" t="s">
+        <v>625</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>626</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
